--- a/raw/biomass.xlsx
+++ b/raw/biomass.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,2500 +355,3226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Harvest_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Site</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Transect</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tube_ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>harvest_w</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>dry_w</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hyphal_weight</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Notes.x</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>bag_damage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>correction</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>corrected_weight</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>26.51</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14.138</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.355</v>
       </c>
-      <c r="H2">
-        <v>0.3536634036144578</v>
+      <c r="J2">
+        <v>-0.06460843373493994</v>
+      </c>
+      <c r="K2">
+        <v>0.93539156626506</v>
+      </c>
+      <c r="L2">
+        <v>0.3320640060240963</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25.75</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>16.492</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.868</v>
       </c>
-      <c r="H3">
-        <v>0.8150572289156628</v>
+      <c r="J3">
+        <v>-0.2418674698795182</v>
+      </c>
+      <c r="K3">
+        <v>0.7581325301204818</v>
+      </c>
+      <c r="L3">
+        <v>0.6580590361445782</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>L15</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>18.45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.655000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9370000000000001</v>
       </c>
-      <c r="H4">
-        <v>0.3647808734939759</v>
+      <c r="J4">
+        <v>0.2729668674698794</v>
+      </c>
+      <c r="K4">
+        <v>1.272966867469879</v>
+      </c>
+      <c r="L4">
+        <v>1.192769954819277</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>26.22</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18.083</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.701</v>
       </c>
-      <c r="H5">
-        <v>0.6830527108433735</v>
+      <c r="J5">
+        <v>-0.3616716867469879</v>
+      </c>
+      <c r="K5">
+        <v>0.6383283132530121</v>
+      </c>
+      <c r="L5">
+        <v>0.4474681475903615</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>L41</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>26.61</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17.777</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.261</v>
       </c>
-      <c r="H6">
-        <v>0.2619826807228916</v>
+      <c r="J6">
+        <v>-0.3386295180722893</v>
+      </c>
+      <c r="K6">
+        <v>0.6613704819277106</v>
+      </c>
+      <c r="L6">
+        <v>0.1726176957831325</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25.71</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15.443</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.44</v>
       </c>
-      <c r="H7">
-        <v>0.4118373493975905</v>
+      <c r="J7">
+        <v>-0.1628765060240965</v>
+      </c>
+      <c r="K7">
+        <v>0.8371234939759035</v>
+      </c>
+      <c r="L7">
+        <v>0.3683343373493975</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12.82</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7.191</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.47</v>
       </c>
-      <c r="H8">
-        <v>-0.01628012048192768</v>
+      <c r="J8">
+        <v>0.4585090361445783</v>
+      </c>
+      <c r="K8">
+        <v>1.458509036144578</v>
+      </c>
+      <c r="L8">
+        <v>0.6854992469879517</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>26.06</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>13.33</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.313</v>
       </c>
-      <c r="H9">
-        <v>0.3012153614457832</v>
+      <c r="J9">
+        <v>-0.003765060240963775</v>
+      </c>
+      <c r="K9">
+        <v>0.9962349397590362</v>
+      </c>
+      <c r="L9">
+        <v>0.3118215361445784</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>13.66</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7.589</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.167</v>
       </c>
-      <c r="H10">
-        <v>0.004778614457831336</v>
+      <c r="J10">
+        <v>0.428539156626506</v>
+      </c>
+      <c r="K10">
+        <v>1.428539156626506</v>
+      </c>
+      <c r="L10">
+        <v>0.2385660391566265</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>L31</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>26.68</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>17.504</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.631</v>
       </c>
-      <c r="H11">
-        <v>0.6367018072289158</v>
+      <c r="J11">
+        <v>-0.3180722891566267</v>
+      </c>
+      <c r="K11">
+        <v>0.6819277108433733</v>
+      </c>
+      <c r="L11">
+        <v>0.4302963855421686</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>21.88</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>13.684</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.393</v>
       </c>
-      <c r="H12">
-        <v>0.2545030120481929</v>
+      <c r="J12">
+        <v>-0.03042168674698808</v>
+      </c>
+      <c r="K12">
+        <v>0.9695783132530119</v>
+      </c>
+      <c r="L12">
+        <v>0.3810442771084337</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>S34</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>26.44</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>17.468</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.425</v>
       </c>
-      <c r="H13">
-        <v>0.421159638554217</v>
+      <c r="J13">
+        <v>-0.3153614457831326</v>
+      </c>
+      <c r="K13">
+        <v>0.6846385542168674</v>
+      </c>
+      <c r="L13">
+        <v>0.2909713855421686</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>25.72</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.511</v>
       </c>
-      <c r="H14">
-        <v>0.4786777108433735</v>
+      <c r="J14">
+        <v>-0.5210843373493976</v>
+      </c>
+      <c r="K14">
+        <v>0.4789156626506024</v>
+      </c>
+      <c r="L14">
+        <v>0.2447259036144578</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>26.51</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>20.9</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.819</v>
       </c>
-      <c r="H15">
-        <v>0.8159164156626507</v>
+      <c r="J15">
+        <v>-0.5737951807228915</v>
+      </c>
+      <c r="K15">
+        <v>0.4262048192771085</v>
+      </c>
+      <c r="L15">
+        <v>0.3490617469879518</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>22.28</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15.99</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.5590000000000001</v>
       </c>
-      <c r="H16">
-        <v>0.3788403614457833</v>
+      <c r="J16">
+        <v>-0.2040662650602409</v>
+      </c>
+      <c r="K16">
+        <v>0.7959337349397591</v>
+      </c>
+      <c r="L16">
+        <v>0.4449269578313254</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>26.63</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>22.38</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.389</v>
       </c>
-      <c r="H17">
-        <v>0.3910504518072291</v>
+      <c r="J17">
+        <v>-0.6852409638554217</v>
+      </c>
+      <c r="K17">
+        <v>0.3147590361445783</v>
+      </c>
+      <c r="L17">
+        <v>0.122441265060241</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>16.21</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>12.57</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.65</v>
       </c>
-      <c r="H18">
-        <v>0.1434111445783133</v>
+      <c r="J18">
+        <v>0.05346385542168668</v>
+      </c>
+      <c r="K18">
+        <v>1.053463855421687</v>
+      </c>
+      <c r="L18">
+        <v>0.6847515060240963</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>25.35</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>22.27</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.907</v>
       </c>
-      <c r="H19">
-        <v>0.8243591867469882</v>
+      <c r="J19">
+        <v>-0.6769578313253013</v>
+      </c>
+      <c r="K19">
+        <v>0.3230421686746987</v>
+      </c>
+      <c r="L19">
+        <v>0.2929992469879517</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>22.63</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8.800000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.656</v>
       </c>
-      <c r="H20">
-        <v>0.4618674698795183</v>
+      <c r="J20">
+        <v>0.3373493975903614</v>
+      </c>
+      <c r="K20">
+        <v>1.337349397590361</v>
+      </c>
+      <c r="L20">
+        <v>0.8773012048192771</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20.81</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>16.3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.088</v>
       </c>
-      <c r="H21">
-        <v>0.6169156626506027</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(White fungus around)</t>
+        </is>
+      </c>
+      <c r="J21">
+        <v>-0.2274096385542167</v>
+      </c>
+      <c r="K21">
+        <v>0.7725903614457833</v>
+      </c>
+      <c r="L21">
+        <v>0.8405783132530122</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>22.64</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>17.515</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.311</v>
       </c>
-      <c r="H22">
-        <v>0.2191987951807229</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>D-Mod</t>
+        </is>
+      </c>
+      <c r="J22">
+        <v>-0.3189006024096386</v>
+      </c>
+      <c r="K22">
+        <v>0.6810993975903614</v>
+      </c>
+      <c r="L22">
+        <v>0.2118219126506024</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>26.62</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>20.97</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.2</v>
       </c>
-      <c r="H23">
-        <v>0.2009036144578313</v>
+      <c r="J23">
+        <v>-0.5790662650602409</v>
+      </c>
+      <c r="K23">
+        <v>0.4209337349397591</v>
+      </c>
+      <c r="L23">
+        <v>0.08418674698795181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>14.5</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>10.56</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.8070000000000001</v>
       </c>
-      <c r="H24">
-        <v>0.07413704819277113</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>D-Major</t>
+        </is>
+      </c>
+      <c r="J24">
+        <v>0.2048192771084337</v>
+      </c>
+      <c r="K24">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="L24">
+        <v>0.9722891566265059</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>22.85</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>17.59</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <v>0.7206325301204821</v>
+      <c r="J25">
+        <v>-0.3245481927710844</v>
+      </c>
+      <c r="K25">
+        <v>0.6754518072289156</v>
+      </c>
+      <c r="L25">
+        <v>0.6754518072289156</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>25.67</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.626</v>
       </c>
-      <c r="H26">
-        <v>0.5840466867469881</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NON recoverable dry weight (error in the oven)</t>
+        </is>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1.252</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>22.26</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>11.35</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.987</v>
       </c>
-      <c r="H27">
-        <v>0.6674141566265059</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>recovered from oven error</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>0.1453313253012048</v>
+      </c>
+      <c r="K27">
+        <v>1.145331325301205</v>
+      </c>
+      <c r="L27">
+        <v>1.130442018072289</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>23.22</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>12.65</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.766</v>
       </c>
-      <c r="H28">
-        <v>0.5733463855421687</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>D-Minor</t>
+        </is>
+      </c>
+      <c r="J28">
+        <v>0.04743975903614451</v>
+      </c>
+      <c r="K28">
+        <v>1.047439759036145</v>
+      </c>
+      <c r="L28">
+        <v>0.8023388554216868</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>22.32</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>11.53</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.667</v>
       </c>
-      <c r="H29">
-        <v>0.4540421686746989</v>
+      <c r="J29">
+        <v>0.1317771084337349</v>
+      </c>
+      <c r="K29">
+        <v>1.131777108433735</v>
+      </c>
+      <c r="L29">
+        <v>0.7548953313253012</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>22.98</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>11.93</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.239</v>
       </c>
-      <c r="H30">
-        <v>1.635414156626506</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>D-Minor</t>
+        </is>
+      </c>
+      <c r="J30">
+        <v>0.1016566265060241</v>
+      </c>
+      <c r="K30">
+        <v>1.101656626506024</v>
+      </c>
+      <c r="L30">
+        <v>2.466609186746988</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>23.19</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>12.07</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.257</v>
       </c>
-      <c r="H31">
-        <v>0.9380173192771083</v>
+      <c r="J31">
+        <v>0.09111445783132524</v>
+      </c>
+      <c r="K31">
+        <v>1.091114457831325</v>
+      </c>
+      <c r="L31">
+        <v>1.371530873493976</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>19.4</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>10.01</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.354</v>
       </c>
-      <c r="H32">
-        <v>0.1631385542168675</v>
+      <c r="J32">
+        <v>0.2462349397590361</v>
+      </c>
+      <c r="K32">
+        <v>1.246234939759036</v>
+      </c>
+      <c r="L32">
+        <v>0.4411671686746988</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>23.31</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>12.1</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.82</v>
       </c>
-      <c r="H33">
-        <v>1.374593373493976</v>
+      <c r="J33">
+        <v>0.08885542168674697</v>
+      </c>
+      <c r="K33">
+        <v>1.088855421686747</v>
+      </c>
+      <c r="L33">
+        <v>1.98171686746988</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>L15</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>22.95</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>12.01</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.32</v>
       </c>
-      <c r="H34">
-        <v>1.689337349397591</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>D-Minor</t>
+        </is>
+      </c>
+      <c r="J34">
+        <v>0.0956325301204819</v>
+      </c>
+      <c r="K34">
+        <v>1.095632530120482</v>
+      </c>
+      <c r="L34">
+        <v>2.541867469879518</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>26.43</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>13.7</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.676</v>
       </c>
-      <c r="H35">
-        <v>0.669382530120482</v>
+      <c r="J35">
+        <v>-0.03162650602409638</v>
+      </c>
+      <c r="K35">
+        <v>0.9683734939759037</v>
+      </c>
+      <c r="L35">
+        <v>0.6546204819277109</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>25.87</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>13.68</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.457</v>
       </c>
-      <c r="H36">
-        <v>0.4332552710843373</v>
+      <c r="J36">
+        <v>-0.03012048192771087</v>
+      </c>
+      <c r="K36">
+        <v>0.9698795180722891</v>
+      </c>
+      <c r="L36">
+        <v>0.4432349397590362</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>15.81</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8.18</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.641</v>
       </c>
-      <c r="H37">
-        <v>0.1221182228915663</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>D-Minor</t>
+        </is>
+      </c>
+      <c r="J37">
+        <v>0.3840361445783133</v>
+      </c>
+      <c r="K37">
+        <v>1.384036144578313</v>
+      </c>
+      <c r="L37">
+        <v>0.8871671686746989</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>20.48</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>10.37</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.341</v>
       </c>
-      <c r="H38">
-        <v>0.1848795180722892</v>
+      <c r="J38">
+        <v>0.2191265060240963</v>
+      </c>
+      <c r="K38">
+        <v>1.219126506024096</v>
+      </c>
+      <c r="L38">
+        <v>0.4157221385542169</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>25.08</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>13.01</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1.874</v>
       </c>
-      <c r="H39">
-        <v>1.665150602409639</v>
+      <c r="J39">
+        <v>0.02033132530120479</v>
+      </c>
+      <c r="K39">
+        <v>1.020331325301205</v>
+      </c>
+      <c r="L39">
+        <v>1.912100903614458</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>26</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>13.49</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.39</v>
       </c>
-      <c r="H40">
-        <v>0.3735542168674699</v>
+      <c r="J40">
+        <v>-0.01581325301204812</v>
+      </c>
+      <c r="K40">
+        <v>0.9841867469879518</v>
+      </c>
+      <c r="L40">
+        <v>0.3838328313253012</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>25.3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>13.25</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.89</v>
       </c>
-      <c r="H41">
-        <v>0.8055572289156628</v>
+      <c r="J41">
+        <v>0.002259036144578265</v>
+      </c>
+      <c r="K41">
+        <v>1.002259036144578</v>
+      </c>
+      <c r="L41">
+        <v>0.8920105421686746</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>19.9</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>10.2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.743</v>
       </c>
-      <c r="H42">
-        <v>0.3703810240963855</v>
+      <c r="J42">
+        <v>0.2319277108433735</v>
+      </c>
+      <c r="K42">
+        <v>1.231927710843373</v>
+      </c>
+      <c r="L42">
+        <v>0.9153222891566265</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>24</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>12.63</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.86</v>
       </c>
-      <c r="H43">
-        <v>0.6942168674698795</v>
+      <c r="J43">
+        <v>0.04894578313253015</v>
+      </c>
+      <c r="K43">
+        <v>1.04894578313253</v>
+      </c>
+      <c r="L43">
+        <v>0.9020933734939759</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>23.45</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>12.14</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.91</v>
       </c>
-      <c r="H44">
-        <v>0.696890060240964</v>
+      <c r="J44">
+        <v>0.08584337349397582</v>
+      </c>
+      <c r="K44">
+        <v>1.085843373493976</v>
+      </c>
+      <c r="L44">
+        <v>0.9881174698795181</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>12.56</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>6.46</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.28</v>
       </c>
-      <c r="H45">
-        <v>-0.01518072289156624</v>
+      <c r="J45">
+        <v>0.5135542168674698</v>
+      </c>
+      <c r="K45">
+        <v>1.51355421686747</v>
+      </c>
+      <c r="L45">
+        <v>0.4237951807228916</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>23.27</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>11.98</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.825</v>
       </c>
-      <c r="H46">
-        <v>0.6206137048192771</v>
+      <c r="J46">
+        <v>0.09789156626506017</v>
+      </c>
+      <c r="K46">
+        <v>1.09789156626506</v>
+      </c>
+      <c r="L46">
+        <v>0.9057605421686745</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>10.11</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>5.25</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>1.327</v>
       </c>
-      <c r="H47">
-        <v>-0.3167612951807227</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>D- Extreme</t>
+        </is>
+      </c>
+      <c r="J47">
+        <v>0.6046686746987951</v>
+      </c>
+      <c r="K47">
+        <v>1.604668674698795</v>
+      </c>
+      <c r="L47">
+        <v>2.129395331325301</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>20.85</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>10.47</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.615</v>
       </c>
-      <c r="H48">
-        <v>0.3505685240963857</v>
+      <c r="J48">
+        <v>0.2115963855421687</v>
+      </c>
+      <c r="K48">
+        <v>1.211596385542169</v>
+      </c>
+      <c r="L48">
+        <v>0.7451317771084338</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>22.89</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>11.64</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>1.107</v>
       </c>
-      <c r="H49">
-        <v>0.8010745481927712</v>
+      <c r="J49">
+        <v>0.1234939759036144</v>
+      </c>
+      <c r="K49">
+        <v>1.123493975903614</v>
+      </c>
+      <c r="L49">
+        <v>1.243707831325301</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>26.27</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>13.36</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.84</v>
       </c>
-      <c r="H50">
-        <v>0.8216566265060241</v>
+      <c r="J50">
+        <v>-0.006024096385542174</v>
+      </c>
+      <c r="K50">
+        <v>0.9939759036144579</v>
+      </c>
+      <c r="L50">
+        <v>0.8349397590361446</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>26.25</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>13.46</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1.165</v>
       </c>
-      <c r="H51">
-        <v>1.137804969879518</v>
+      <c r="J51">
+        <v>-0.01355421686746999</v>
+      </c>
+      <c r="K51">
+        <v>0.98644578313253</v>
+      </c>
+      <c r="L51">
+        <v>1.149209337349397</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>25.72</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>13.1</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2.288</v>
       </c>
-      <c r="H52">
-        <v>2.143277108433735</v>
+      <c r="J52">
+        <v>0.01355421686746973</v>
+      </c>
+      <c r="K52">
+        <v>1.01355421686747</v>
+      </c>
+      <c r="L52">
+        <v>2.319012048192771</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>26.64</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>13.74</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.707</v>
       </c>
-      <c r="H53">
-        <v>0.7112590361445783</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>(dirty)</t>
+        </is>
+      </c>
+      <c r="J53">
+        <v>-0.03463855421686753</v>
+      </c>
+      <c r="K53">
+        <v>0.9653614457831324</v>
+      </c>
+      <c r="L53">
+        <v>0.6825105421686746</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>22.04</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>11.21</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.287</v>
       </c>
-      <c r="H54">
-        <v>0.1893162650602409</v>
+      <c r="J54">
+        <v>0.1558734939759035</v>
+      </c>
+      <c r="K54">
+        <v>1.155873493975903</v>
+      </c>
+      <c r="L54">
+        <v>0.3317356927710843</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>24.96</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>12.67</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.571</v>
       </c>
-      <c r="H55">
-        <v>0.5022048192771085</v>
+      <c r="J55">
+        <v>0.045933734939759</v>
+      </c>
+      <c r="K55">
+        <v>1.045933734939759</v>
+      </c>
+      <c r="L55">
+        <v>0.5972281626506024</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>26.1</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>13.36</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.526</v>
       </c>
-      <c r="H56">
-        <v>0.5077801204819279</v>
+      <c r="J56">
+        <v>-0.006024096385542174</v>
+      </c>
+      <c r="K56">
+        <v>0.9939759036144579</v>
+      </c>
+      <c r="L56">
+        <v>0.5228313253012049</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>26.08</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>13.37</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.755</v>
       </c>
-      <c r="H57">
-        <v>0.727710843373494</v>
+      <c r="J57">
+        <v>-0.006777108433735063</v>
+      </c>
+      <c r="K57">
+        <v>0.993222891566265</v>
+      </c>
+      <c r="L57">
+        <v>0.7498832831325301</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>24.79</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>12.64</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.737</v>
       </c>
-      <c r="H58">
-        <v>0.6387703313253013</v>
+      <c r="J58">
+        <v>0.04819277108433726</v>
+      </c>
+      <c r="K58">
+        <v>1.048192771084337</v>
+      </c>
+      <c r="L58">
+        <v>0.7725180722891566</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>26.64</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>13.31</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.124</v>
       </c>
-      <c r="H59">
-        <v>0.1247469879518072</v>
+      <c r="J59">
+        <v>-0.002259036144578399</v>
+      </c>
+      <c r="K59">
+        <v>0.9977409638554215</v>
+      </c>
+      <c r="L59">
+        <v>0.1237198795180723</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>26.54</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>13.73</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.5639999999999999</v>
       </c>
-      <c r="H60">
-        <v>0.5631506024096384</v>
+      <c r="J60">
+        <v>-0.03388554216867478</v>
+      </c>
+      <c r="K60">
+        <v>0.9661144578313252</v>
+      </c>
+      <c r="L60">
+        <v>0.5448885542168673</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>S8</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>15.04</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>7.49</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.9</v>
       </c>
-      <c r="H61">
-        <v>0.1192771084337349</v>
+      <c r="J61">
+        <v>0.4359939759036144</v>
+      </c>
+      <c r="K61">
+        <v>1.435993975903614</v>
+      </c>
+      <c r="L61">
+        <v>1.292394578313253</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>25.51</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>13.22</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.766</v>
       </c>
-      <c r="H62">
-        <v>0.7054352409638553</v>
+      <c r="J62">
+        <v>0.004518072289156664</v>
+      </c>
+      <c r="K62">
+        <v>1.004518072289157</v>
+      </c>
+      <c r="L62">
+        <v>0.7694608433734941</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>26.29</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>13.62</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.805</v>
       </c>
-      <c r="H63">
-        <v>0.7886332831325302</v>
+      <c r="J63">
+        <v>-0.02560240963855434</v>
+      </c>
+      <c r="K63">
+        <v>0.9743975903614457</v>
+      </c>
+      <c r="L63">
+        <v>0.7843900602409638</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>26.32</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>13.47</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.531</v>
       </c>
-      <c r="H64">
-        <v>0.5214036144578315</v>
+      <c r="J64">
+        <v>-0.01430722891566261</v>
+      </c>
+      <c r="K64">
+        <v>0.9856927710843374</v>
+      </c>
+      <c r="L64">
+        <v>0.5234028614457832</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>26.3</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>13.12</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>1.359</v>
       </c>
-      <c r="H65">
-        <v>1.332393072289156</v>
+      <c r="J65">
+        <v>0.01204819277108421</v>
+      </c>
+      <c r="K65">
+        <v>1.012048192771084</v>
+      </c>
+      <c r="L65">
+        <v>1.375373493975903</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>26.72</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>13.72</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.742</v>
       </c>
-      <c r="H66">
-        <v>0.7509397590361445</v>
+      <c r="J66">
+        <v>-0.03313253012048203</v>
+      </c>
+      <c r="K66">
+        <v>0.966867469879518</v>
+      </c>
+      <c r="L66">
+        <v>0.7174156626506023</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>26.16</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>13.32</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.949</v>
       </c>
-      <c r="H67">
-        <v>0.9204156626506023</v>
+      <c r="J67">
+        <v>-0.003012048192771154</v>
+      </c>
+      <c r="K67">
+        <v>0.9969879518072289</v>
+      </c>
+      <c r="L67">
+        <v>0.9461415662650602</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>22.23</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>11.18</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1.757</v>
       </c>
-      <c r="H68">
-        <v>1.184122740963855</v>
+      <c r="J68">
+        <v>0.1581325301204819</v>
+      </c>
+      <c r="K68">
+        <v>1.158132530120482</v>
+      </c>
+      <c r="L68">
+        <v>2.034838855421687</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>25.52</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>12.95</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>2.094</v>
       </c>
-      <c r="H69">
-        <v>1.930012048192772</v>
+      <c r="J69">
+        <v>0.02484939759036145</v>
+      </c>
+      <c r="K69">
+        <v>1.024849397590361</v>
+      </c>
+      <c r="L69">
+        <v>2.146034638554217</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>26.45</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>13.63</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.778</v>
       </c>
-      <c r="H70">
-        <v>0.7715557228915663</v>
+      <c r="J70">
+        <v>-0.02635542168674696</v>
+      </c>
+      <c r="K70">
+        <v>0.973644578313253</v>
+      </c>
+      <c r="L70">
+        <v>0.7574954819277109</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>L33</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>26.82</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>13.69</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.5610000000000001</v>
       </c>
-      <c r="H71">
-        <v>0.5719834337349399</v>
+      <c r="J71">
+        <v>-0.03087349397590363</v>
+      </c>
+      <c r="K71">
+        <v>0.9691265060240963</v>
+      </c>
+      <c r="L71">
+        <v>0.5436799698795181</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>L39</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>26.09</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>13.18</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.31</v>
       </c>
-      <c r="H72">
-        <v>0.2990286144578314</v>
+      <c r="J72">
+        <v>0.007530120481927685</v>
+      </c>
+      <c r="K72">
+        <v>1.007530120481928</v>
+      </c>
+      <c r="L72">
+        <v>0.3123343373493975</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>L47</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>26.9</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>13.84</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1.638</v>
       </c>
-      <c r="H73">
-        <v>1.679936746987952</v>
+      <c r="J73">
+        <v>-0.04216867469879522</v>
+      </c>
+      <c r="K73">
+        <v>0.9578313253012047</v>
+      </c>
+      <c r="L73">
+        <v>1.568927710843373</v>
       </c>
     </row>
   </sheetData>

--- a/raw/biomass.xlsx
+++ b/raw/biomass.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:BC73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,6 +476,171 @@
           <t>biomass_g_ha_day</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Site_Pair</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Vegetation.Class</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Vegetation.Class_abbreviation</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Fire.Interval</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Most.Recent.Fire_Year</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>X2nd.Most.Recent.Fire_Year</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>X3rd.Most.Recent.Fire_Year</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Fire.Severity</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FESM_Fire.Severity.Category</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Fire.Type</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Sample.Date_Fieldwork</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Tree.Basal.Area_m2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Litter.Cover_20mm_perc</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Mean.Litter.Depth_mm</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Herb.Cover_0.50cm_perc</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Shrub.Cover_50.200cm_perc</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Shrub.Connected_50.200cm_perc</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Mean.Max.Shrub.Height_cm</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Herb.Shrub.Connected_0.200cm_perc</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>All.Tree.Canopy.Cover_perc</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Live.Tree.Canopy.Cover_perc</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Dead.Tree.Canopy.Cover_perc</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Bray.P</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>NH4</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>NO3</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Total.P</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Carbon</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Nitrogen</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>diff1</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>diff2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>fire.frequency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,6 +719,119 @@
       <c r="V2">
         <v>248.2210526941158</v>
       </c>
+      <c r="W2">
+        <v>-33.48607</v>
+      </c>
+      <c r="X2">
+        <v>150.40622</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC2">
+        <v>2019</v>
+      </c>
+      <c r="AD2">
+        <v>2013</v>
+      </c>
+      <c r="AE2">
+        <v>2005</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ2">
+        <v>34679.44</v>
+      </c>
+      <c r="AK2">
+        <v>25.5102040816327</v>
+      </c>
+      <c r="AL2">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>60</v>
+      </c>
+      <c r="AN2">
+        <v>30</v>
+      </c>
+      <c r="AO2">
+        <v>6</v>
+      </c>
+      <c r="AP2">
+        <v>104.8</v>
+      </c>
+      <c r="AQ2">
+        <v>28</v>
+      </c>
+      <c r="AR2">
+        <v>17</v>
+      </c>
+      <c r="AS2">
+        <v>17</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>2.83613445378151</v>
+      </c>
+      <c r="AV2">
+        <v>5.8655</v>
+      </c>
+      <c r="AW2">
+        <v>0.176</v>
+      </c>
+      <c r="AX2">
+        <v>167.7</v>
+      </c>
+      <c r="AY2">
+        <v>8.2219</v>
+      </c>
+      <c r="AZ2">
+        <v>0.11274</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2">
+        <v>8</v>
+      </c>
+      <c r="BC2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -632,6 +910,119 @@
       <c r="V3">
         <v>451.3174661898303</v>
       </c>
+      <c r="W3">
+        <v>-33.48607</v>
+      </c>
+      <c r="X3">
+        <v>150.40622</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC3">
+        <v>2019</v>
+      </c>
+      <c r="AD3">
+        <v>2013</v>
+      </c>
+      <c r="AE3">
+        <v>2005</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG3">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ3">
+        <v>34679.44</v>
+      </c>
+      <c r="AK3">
+        <v>25.5102040816327</v>
+      </c>
+      <c r="AL3">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>60</v>
+      </c>
+      <c r="AN3">
+        <v>30</v>
+      </c>
+      <c r="AO3">
+        <v>6</v>
+      </c>
+      <c r="AP3">
+        <v>104.8</v>
+      </c>
+      <c r="AQ3">
+        <v>28</v>
+      </c>
+      <c r="AR3">
+        <v>17</v>
+      </c>
+      <c r="AS3">
+        <v>17</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>2.83613445378151</v>
+      </c>
+      <c r="AV3">
+        <v>5.8655</v>
+      </c>
+      <c r="AW3">
+        <v>0.176</v>
+      </c>
+      <c r="AX3">
+        <v>167.7</v>
+      </c>
+      <c r="AY3">
+        <v>8.2219</v>
+      </c>
+      <c r="AZ3">
+        <v>0.11274</v>
+      </c>
+      <c r="BA3">
+        <v>6</v>
+      </c>
+      <c r="BB3">
+        <v>8</v>
+      </c>
+      <c r="BC3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -710,6 +1101,119 @@
       <c r="V4">
         <v>335.7814520199889</v>
       </c>
+      <c r="W4">
+        <v>-33.48607</v>
+      </c>
+      <c r="X4">
+        <v>150.40622</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC4">
+        <v>2019</v>
+      </c>
+      <c r="AD4">
+        <v>2013</v>
+      </c>
+      <c r="AE4">
+        <v>2005</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ4">
+        <v>34679.44</v>
+      </c>
+      <c r="AK4">
+        <v>25.5102040816327</v>
+      </c>
+      <c r="AL4">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM4">
+        <v>60</v>
+      </c>
+      <c r="AN4">
+        <v>30</v>
+      </c>
+      <c r="AO4">
+        <v>6</v>
+      </c>
+      <c r="AP4">
+        <v>104.8</v>
+      </c>
+      <c r="AQ4">
+        <v>28</v>
+      </c>
+      <c r="AR4">
+        <v>17</v>
+      </c>
+      <c r="AS4">
+        <v>17</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>2.83613445378151</v>
+      </c>
+      <c r="AV4">
+        <v>5.8655</v>
+      </c>
+      <c r="AW4">
+        <v>0.176</v>
+      </c>
+      <c r="AX4">
+        <v>167.7</v>
+      </c>
+      <c r="AY4">
+        <v>8.2219</v>
+      </c>
+      <c r="AZ4">
+        <v>0.11274</v>
+      </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>8</v>
+      </c>
+      <c r="BC4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -783,6 +1287,119 @@
       <c r="V5">
         <v>304.1737921771656</v>
       </c>
+      <c r="W5">
+        <v>-33.48607</v>
+      </c>
+      <c r="X5">
+        <v>150.40622</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC5">
+        <v>2019</v>
+      </c>
+      <c r="AD5">
+        <v>2013</v>
+      </c>
+      <c r="AE5">
+        <v>2005</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ5">
+        <v>34679.44</v>
+      </c>
+      <c r="AK5">
+        <v>25.5102040816327</v>
+      </c>
+      <c r="AL5">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>60</v>
+      </c>
+      <c r="AN5">
+        <v>30</v>
+      </c>
+      <c r="AO5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <v>104.8</v>
+      </c>
+      <c r="AQ5">
+        <v>28</v>
+      </c>
+      <c r="AR5">
+        <v>17</v>
+      </c>
+      <c r="AS5">
+        <v>17</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>2.83613445378151</v>
+      </c>
+      <c r="AV5">
+        <v>5.8655</v>
+      </c>
+      <c r="AW5">
+        <v>0.176</v>
+      </c>
+      <c r="AX5">
+        <v>167.7</v>
+      </c>
+      <c r="AY5">
+        <v>8.2219</v>
+      </c>
+      <c r="AZ5">
+        <v>0.11274</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>8</v>
+      </c>
+      <c r="BC5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -861,6 +1478,119 @@
       <c r="V6">
         <v>991.7317512054624</v>
       </c>
+      <c r="W6">
+        <v>-33.48607</v>
+      </c>
+      <c r="X6">
+        <v>150.40622</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC6">
+        <v>2019</v>
+      </c>
+      <c r="AD6">
+        <v>2013</v>
+      </c>
+      <c r="AE6">
+        <v>2005</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ6">
+        <v>34679.44</v>
+      </c>
+      <c r="AK6">
+        <v>25.5102040816327</v>
+      </c>
+      <c r="AL6">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM6">
+        <v>60</v>
+      </c>
+      <c r="AN6">
+        <v>30</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
+        <v>104.8</v>
+      </c>
+      <c r="AQ6">
+        <v>28</v>
+      </c>
+      <c r="AR6">
+        <v>17</v>
+      </c>
+      <c r="AS6">
+        <v>17</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>2.83613445378151</v>
+      </c>
+      <c r="AV6">
+        <v>5.8655</v>
+      </c>
+      <c r="AW6">
+        <v>0.176</v>
+      </c>
+      <c r="AX6">
+        <v>167.7</v>
+      </c>
+      <c r="AY6">
+        <v>8.2219</v>
+      </c>
+      <c r="AZ6">
+        <v>0.11274</v>
+      </c>
+      <c r="BA6">
+        <v>6</v>
+      </c>
+      <c r="BB6">
+        <v>8</v>
+      </c>
+      <c r="BC6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -934,6 +1664,119 @@
       <c r="V7">
         <v>551.7275589264023</v>
       </c>
+      <c r="W7">
+        <v>-33.48607</v>
+      </c>
+      <c r="X7">
+        <v>150.40622</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC7">
+        <v>2019</v>
+      </c>
+      <c r="AD7">
+        <v>2013</v>
+      </c>
+      <c r="AE7">
+        <v>2005</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG7">
+        <v>4</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ7">
+        <v>34679.44</v>
+      </c>
+      <c r="AK7">
+        <v>25.5102040816327</v>
+      </c>
+      <c r="AL7">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>60</v>
+      </c>
+      <c r="AN7">
+        <v>30</v>
+      </c>
+      <c r="AO7">
+        <v>6</v>
+      </c>
+      <c r="AP7">
+        <v>104.8</v>
+      </c>
+      <c r="AQ7">
+        <v>28</v>
+      </c>
+      <c r="AR7">
+        <v>17</v>
+      </c>
+      <c r="AS7">
+        <v>17</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>2.83613445378151</v>
+      </c>
+      <c r="AV7">
+        <v>5.8655</v>
+      </c>
+      <c r="AW7">
+        <v>0.176</v>
+      </c>
+      <c r="AX7">
+        <v>167.7</v>
+      </c>
+      <c r="AY7">
+        <v>8.2219</v>
+      </c>
+      <c r="AZ7">
+        <v>0.11274</v>
+      </c>
+      <c r="BA7">
+        <v>6</v>
+      </c>
+      <c r="BB7">
+        <v>8</v>
+      </c>
+      <c r="BC7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1007,6 +1850,119 @@
       <c r="V8">
         <v>200.3903600386317</v>
       </c>
+      <c r="W8">
+        <v>-33.48607</v>
+      </c>
+      <c r="X8">
+        <v>150.40622</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC8">
+        <v>2019</v>
+      </c>
+      <c r="AD8">
+        <v>2013</v>
+      </c>
+      <c r="AE8">
+        <v>2005</v>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ8">
+        <v>34679.44</v>
+      </c>
+      <c r="AK8">
+        <v>29.5918367346939</v>
+      </c>
+      <c r="AL8">
+        <v>5.6551724137931</v>
+      </c>
+      <c r="AM8">
+        <v>74</v>
+      </c>
+      <c r="AN8">
+        <v>28</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="AQ8">
+        <v>24</v>
+      </c>
+      <c r="AR8">
+        <v>11</v>
+      </c>
+      <c r="AS8">
+        <v>11</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>2.39635854341737</v>
+      </c>
+      <c r="AV8">
+        <v>5.2345</v>
+      </c>
+      <c r="AW8">
+        <v>0.0175</v>
+      </c>
+      <c r="AX8">
+        <v>98.7</v>
+      </c>
+      <c r="AY8">
+        <v>5.5992</v>
+      </c>
+      <c r="AZ8">
+        <v>0.14579</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>8</v>
+      </c>
+      <c r="BC8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1080,6 +2036,119 @@
       <c r="V9">
         <v>857.4413193149575</v>
       </c>
+      <c r="W9">
+        <v>-33.48607</v>
+      </c>
+      <c r="X9">
+        <v>150.40622</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC9">
+        <v>2019</v>
+      </c>
+      <c r="AD9">
+        <v>2013</v>
+      </c>
+      <c r="AE9">
+        <v>2005</v>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ9">
+        <v>34679.44</v>
+      </c>
+      <c r="AK9">
+        <v>29.5918367346939</v>
+      </c>
+      <c r="AL9">
+        <v>5.6551724137931</v>
+      </c>
+      <c r="AM9">
+        <v>74</v>
+      </c>
+      <c r="AN9">
+        <v>28</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="AQ9">
+        <v>24</v>
+      </c>
+      <c r="AR9">
+        <v>11</v>
+      </c>
+      <c r="AS9">
+        <v>11</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>2.39635854341737</v>
+      </c>
+      <c r="AV9">
+        <v>5.2345</v>
+      </c>
+      <c r="AW9">
+        <v>0.0175</v>
+      </c>
+      <c r="AX9">
+        <v>98.7</v>
+      </c>
+      <c r="AY9">
+        <v>5.5992</v>
+      </c>
+      <c r="AZ9">
+        <v>0.14579</v>
+      </c>
+      <c r="BA9">
+        <v>6</v>
+      </c>
+      <c r="BB9">
+        <v>8</v>
+      </c>
+      <c r="BC9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1158,6 +2227,119 @@
       <c r="V10">
         <v>1110.147252639456</v>
       </c>
+      <c r="W10">
+        <v>-33.48607</v>
+      </c>
+      <c r="X10">
+        <v>150.40622</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC10">
+        <v>2019</v>
+      </c>
+      <c r="AD10">
+        <v>2013</v>
+      </c>
+      <c r="AE10">
+        <v>2005</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ10">
+        <v>34679.44</v>
+      </c>
+      <c r="AK10">
+        <v>29.5918367346939</v>
+      </c>
+      <c r="AL10">
+        <v>5.6551724137931</v>
+      </c>
+      <c r="AM10">
+        <v>74</v>
+      </c>
+      <c r="AN10">
+        <v>28</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="AQ10">
+        <v>24</v>
+      </c>
+      <c r="AR10">
+        <v>11</v>
+      </c>
+      <c r="AS10">
+        <v>11</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>2.39635854341737</v>
+      </c>
+      <c r="AV10">
+        <v>5.2345</v>
+      </c>
+      <c r="AW10">
+        <v>0.0175</v>
+      </c>
+      <c r="AX10">
+        <v>98.7</v>
+      </c>
+      <c r="AY10">
+        <v>5.5992</v>
+      </c>
+      <c r="AZ10">
+        <v>0.14579</v>
+      </c>
+      <c r="BA10">
+        <v>6</v>
+      </c>
+      <c r="BB10">
+        <v>8</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1231,6 +2413,119 @@
       <c r="V11">
         <v>280.8825933646956</v>
       </c>
+      <c r="W11">
+        <v>-33.48607</v>
+      </c>
+      <c r="X11">
+        <v>150.40622</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC11">
+        <v>2019</v>
+      </c>
+      <c r="AD11">
+        <v>2013</v>
+      </c>
+      <c r="AE11">
+        <v>2005</v>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ11">
+        <v>34679.44</v>
+      </c>
+      <c r="AK11">
+        <v>29.5918367346939</v>
+      </c>
+      <c r="AL11">
+        <v>5.6551724137931</v>
+      </c>
+      <c r="AM11">
+        <v>74</v>
+      </c>
+      <c r="AN11">
+        <v>28</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="AQ11">
+        <v>24</v>
+      </c>
+      <c r="AR11">
+        <v>11</v>
+      </c>
+      <c r="AS11">
+        <v>11</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>2.39635854341737</v>
+      </c>
+      <c r="AV11">
+        <v>5.2345</v>
+      </c>
+      <c r="AW11">
+        <v>0.0175</v>
+      </c>
+      <c r="AX11">
+        <v>98.7</v>
+      </c>
+      <c r="AY11">
+        <v>5.5992</v>
+      </c>
+      <c r="AZ11">
+        <v>0.14579</v>
+      </c>
+      <c r="BA11">
+        <v>6</v>
+      </c>
+      <c r="BB11">
+        <v>8</v>
+      </c>
+      <c r="BC11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1304,6 +2599,119 @@
       <c r="V12">
         <v>193.9970227092112</v>
       </c>
+      <c r="W12">
+        <v>-33.48607</v>
+      </c>
+      <c r="X12">
+        <v>150.40622</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC12">
+        <v>2019</v>
+      </c>
+      <c r="AD12">
+        <v>2013</v>
+      </c>
+      <c r="AE12">
+        <v>2005</v>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ12">
+        <v>34679.44</v>
+      </c>
+      <c r="AK12">
+        <v>29.5918367346939</v>
+      </c>
+      <c r="AL12">
+        <v>5.6551724137931</v>
+      </c>
+      <c r="AM12">
+        <v>74</v>
+      </c>
+      <c r="AN12">
+        <v>28</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="AQ12">
+        <v>24</v>
+      </c>
+      <c r="AR12">
+        <v>11</v>
+      </c>
+      <c r="AS12">
+        <v>11</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>2.39635854341737</v>
+      </c>
+      <c r="AV12">
+        <v>5.2345</v>
+      </c>
+      <c r="AW12">
+        <v>0.0175</v>
+      </c>
+      <c r="AX12">
+        <v>98.7</v>
+      </c>
+      <c r="AY12">
+        <v>5.5992</v>
+      </c>
+      <c r="AZ12">
+        <v>0.14579</v>
+      </c>
+      <c r="BA12">
+        <v>6</v>
+      </c>
+      <c r="BB12">
+        <v>8</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1382,6 +2790,119 @@
       <c r="V13">
         <v>445.2474624914506</v>
       </c>
+      <c r="W13">
+        <v>-33.48607</v>
+      </c>
+      <c r="X13">
+        <v>150.40622</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC13">
+        <v>2019</v>
+      </c>
+      <c r="AD13">
+        <v>2013</v>
+      </c>
+      <c r="AE13">
+        <v>2005</v>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="AJ13">
+        <v>34679.44</v>
+      </c>
+      <c r="AK13">
+        <v>29.5918367346939</v>
+      </c>
+      <c r="AL13">
+        <v>5.6551724137931</v>
+      </c>
+      <c r="AM13">
+        <v>74</v>
+      </c>
+      <c r="AN13">
+        <v>28</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>24</v>
+      </c>
+      <c r="AR13">
+        <v>11</v>
+      </c>
+      <c r="AS13">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>2.39635854341737</v>
+      </c>
+      <c r="AV13">
+        <v>5.2345</v>
+      </c>
+      <c r="AW13">
+        <v>0.0175</v>
+      </c>
+      <c r="AX13">
+        <v>98.7</v>
+      </c>
+      <c r="AY13">
+        <v>5.5992</v>
+      </c>
+      <c r="AZ13">
+        <v>0.14579</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1455,6 +2976,113 @@
       <c r="V14">
         <v>219.0046995124299</v>
       </c>
+      <c r="W14">
+        <v>-33.52589</v>
+      </c>
+      <c r="X14">
+        <v>150.56587</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC14">
+        <v>2019</v>
+      </c>
+      <c r="AD14">
+        <v>2001</v>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ14">
+        <v>15743.3</v>
+      </c>
+      <c r="AK14">
+        <v>23.469387755102</v>
+      </c>
+      <c r="AL14">
+        <v>8.28260869565217</v>
+      </c>
+      <c r="AM14">
+        <v>72</v>
+      </c>
+      <c r="AN14">
+        <v>64</v>
+      </c>
+      <c r="AO14">
+        <v>10</v>
+      </c>
+      <c r="AP14">
+        <v>120.64</v>
+      </c>
+      <c r="AQ14">
+        <v>64</v>
+      </c>
+      <c r="AR14">
+        <v>26</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>26</v>
+      </c>
+      <c r="AU14">
+        <v>1.90826330532213</v>
+      </c>
+      <c r="AV14">
+        <v>3.08</v>
+      </c>
+      <c r="AW14">
+        <v>0.214</v>
+      </c>
+      <c r="AX14">
+        <v>79.7</v>
+      </c>
+      <c r="AY14">
+        <v>2.8202</v>
+      </c>
+      <c r="AZ14">
+        <v>0.05049</v>
+      </c>
+      <c r="BA14">
+        <v>18</v>
+      </c>
+      <c r="BC14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1528,6 +3156,113 @@
       <c r="V15">
         <v>340.5474811576838</v>
       </c>
+      <c r="W15">
+        <v>-33.52589</v>
+      </c>
+      <c r="X15">
+        <v>150.56587</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC15">
+        <v>2019</v>
+      </c>
+      <c r="AD15">
+        <v>2001</v>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG15">
+        <v>4</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ15">
+        <v>15743.3</v>
+      </c>
+      <c r="AK15">
+        <v>23.469387755102</v>
+      </c>
+      <c r="AL15">
+        <v>8.28260869565217</v>
+      </c>
+      <c r="AM15">
+        <v>72</v>
+      </c>
+      <c r="AN15">
+        <v>64</v>
+      </c>
+      <c r="AO15">
+        <v>10</v>
+      </c>
+      <c r="AP15">
+        <v>120.64</v>
+      </c>
+      <c r="AQ15">
+        <v>64</v>
+      </c>
+      <c r="AR15">
+        <v>26</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>26</v>
+      </c>
+      <c r="AU15">
+        <v>1.90826330532213</v>
+      </c>
+      <c r="AV15">
+        <v>3.08</v>
+      </c>
+      <c r="AW15">
+        <v>0.214</v>
+      </c>
+      <c r="AX15">
+        <v>79.7</v>
+      </c>
+      <c r="AY15">
+        <v>2.8202</v>
+      </c>
+      <c r="AZ15">
+        <v>0.05049</v>
+      </c>
+      <c r="BA15">
+        <v>18</v>
+      </c>
+      <c r="BC15">
+        <v>18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1601,6 +3336,113 @@
       <c r="V16">
         <v>276.56684776444</v>
       </c>
+      <c r="W16">
+        <v>-33.52589</v>
+      </c>
+      <c r="X16">
+        <v>150.56587</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC16">
+        <v>2019</v>
+      </c>
+      <c r="AD16">
+        <v>2001</v>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG16">
+        <v>4</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ16">
+        <v>15743.3</v>
+      </c>
+      <c r="AK16">
+        <v>23.469387755102</v>
+      </c>
+      <c r="AL16">
+        <v>8.28260869565217</v>
+      </c>
+      <c r="AM16">
+        <v>72</v>
+      </c>
+      <c r="AN16">
+        <v>64</v>
+      </c>
+      <c r="AO16">
+        <v>10</v>
+      </c>
+      <c r="AP16">
+        <v>120.64</v>
+      </c>
+      <c r="AQ16">
+        <v>64</v>
+      </c>
+      <c r="AR16">
+        <v>26</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>26</v>
+      </c>
+      <c r="AU16">
+        <v>1.90826330532213</v>
+      </c>
+      <c r="AV16">
+        <v>3.08</v>
+      </c>
+      <c r="AW16">
+        <v>0.214</v>
+      </c>
+      <c r="AX16">
+        <v>79.7</v>
+      </c>
+      <c r="AY16">
+        <v>2.8202</v>
+      </c>
+      <c r="AZ16">
+        <v>0.05049</v>
+      </c>
+      <c r="BA16">
+        <v>18</v>
+      </c>
+      <c r="BC16">
+        <v>18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1674,6 +3516,113 @@
       <c r="V17">
         <v>161.0207826611264</v>
       </c>
+      <c r="W17">
+        <v>-33.52589</v>
+      </c>
+      <c r="X17">
+        <v>150.56587</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC17">
+        <v>2019</v>
+      </c>
+      <c r="AD17">
+        <v>2001</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ17">
+        <v>15743.3</v>
+      </c>
+      <c r="AK17">
+        <v>23.469387755102</v>
+      </c>
+      <c r="AL17">
+        <v>8.28260869565217</v>
+      </c>
+      <c r="AM17">
+        <v>72</v>
+      </c>
+      <c r="AN17">
+        <v>64</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>120.64</v>
+      </c>
+      <c r="AQ17">
+        <v>64</v>
+      </c>
+      <c r="AR17">
+        <v>26</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>26</v>
+      </c>
+      <c r="AU17">
+        <v>1.90826330532213</v>
+      </c>
+      <c r="AV17">
+        <v>3.08</v>
+      </c>
+      <c r="AW17">
+        <v>0.214</v>
+      </c>
+      <c r="AX17">
+        <v>79.7</v>
+      </c>
+      <c r="AY17">
+        <v>2.8202</v>
+      </c>
+      <c r="AZ17">
+        <v>0.05049</v>
+      </c>
+      <c r="BA17">
+        <v>18</v>
+      </c>
+      <c r="BC17">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1747,6 +3696,113 @@
       <c r="V18">
         <v>442.0117762644163</v>
       </c>
+      <c r="W18">
+        <v>-33.52589</v>
+      </c>
+      <c r="X18">
+        <v>150.56587</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC18">
+        <v>2019</v>
+      </c>
+      <c r="AD18">
+        <v>2001</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG18">
+        <v>4</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ18">
+        <v>15743.3</v>
+      </c>
+      <c r="AK18">
+        <v>23.469387755102</v>
+      </c>
+      <c r="AL18">
+        <v>8.28260869565217</v>
+      </c>
+      <c r="AM18">
+        <v>72</v>
+      </c>
+      <c r="AN18">
+        <v>64</v>
+      </c>
+      <c r="AO18">
+        <v>10</v>
+      </c>
+      <c r="AP18">
+        <v>120.64</v>
+      </c>
+      <c r="AQ18">
+        <v>64</v>
+      </c>
+      <c r="AR18">
+        <v>26</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>26</v>
+      </c>
+      <c r="AU18">
+        <v>1.90826330532213</v>
+      </c>
+      <c r="AV18">
+        <v>3.08</v>
+      </c>
+      <c r="AW18">
+        <v>0.214</v>
+      </c>
+      <c r="AX18">
+        <v>79.7</v>
+      </c>
+      <c r="AY18">
+        <v>2.8202</v>
+      </c>
+      <c r="AZ18">
+        <v>0.05049</v>
+      </c>
+      <c r="BA18">
+        <v>18</v>
+      </c>
+      <c r="BC18">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1820,6 +3876,113 @@
       <c r="V19">
         <v>394.3962907100162</v>
       </c>
+      <c r="W19">
+        <v>-33.52589</v>
+      </c>
+      <c r="X19">
+        <v>150.56587</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC19">
+        <v>2019</v>
+      </c>
+      <c r="AD19">
+        <v>2001</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ19">
+        <v>15743.3</v>
+      </c>
+      <c r="AK19">
+        <v>23.469387755102</v>
+      </c>
+      <c r="AL19">
+        <v>8.28260869565217</v>
+      </c>
+      <c r="AM19">
+        <v>72</v>
+      </c>
+      <c r="AN19">
+        <v>64</v>
+      </c>
+      <c r="AO19">
+        <v>10</v>
+      </c>
+      <c r="AP19">
+        <v>120.64</v>
+      </c>
+      <c r="AQ19">
+        <v>64</v>
+      </c>
+      <c r="AR19">
+        <v>26</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>26</v>
+      </c>
+      <c r="AU19">
+        <v>1.90826330532213</v>
+      </c>
+      <c r="AV19">
+        <v>3.08</v>
+      </c>
+      <c r="AW19">
+        <v>0.214</v>
+      </c>
+      <c r="AX19">
+        <v>79.7</v>
+      </c>
+      <c r="AY19">
+        <v>2.8202</v>
+      </c>
+      <c r="AZ19">
+        <v>0.05049</v>
+      </c>
+      <c r="BA19">
+        <v>18</v>
+      </c>
+      <c r="BC19">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1893,6 +4056,113 @@
       <c r="V20">
         <v>293.3857826530229</v>
       </c>
+      <c r="W20">
+        <v>-33.52589</v>
+      </c>
+      <c r="X20">
+        <v>150.56587</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC20">
+        <v>2019</v>
+      </c>
+      <c r="AD20">
+        <v>2001</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG20">
+        <v>4</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ20">
+        <v>15743.3</v>
+      </c>
+      <c r="AK20">
+        <v>21.4285714285714</v>
+      </c>
+      <c r="AL20">
+        <v>5.69047619047619</v>
+      </c>
+      <c r="AM20">
+        <v>58</v>
+      </c>
+      <c r="AN20">
+        <v>36</v>
+      </c>
+      <c r="AO20">
+        <v>2</v>
+      </c>
+      <c r="AP20">
+        <v>66.2</v>
+      </c>
+      <c r="AQ20">
+        <v>34</v>
+      </c>
+      <c r="AR20">
+        <v>32</v>
+      </c>
+      <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <v>30</v>
+      </c>
+      <c r="AU20">
+        <v>1.50490196078431</v>
+      </c>
+      <c r="AV20">
+        <v>11.163</v>
+      </c>
+      <c r="AW20">
+        <v>0.2905</v>
+      </c>
+      <c r="AX20">
+        <v>67.5</v>
+      </c>
+      <c r="AY20">
+        <v>2.1151</v>
+      </c>
+      <c r="AZ20">
+        <v>0.017</v>
+      </c>
+      <c r="BA20">
+        <v>18</v>
+      </c>
+      <c r="BC20">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1971,6 +4241,113 @@
       <c r="V21">
         <v>529.1473116557212</v>
       </c>
+      <c r="W21">
+        <v>-33.52589</v>
+      </c>
+      <c r="X21">
+        <v>150.56587</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC21">
+        <v>2019</v>
+      </c>
+      <c r="AD21">
+        <v>2001</v>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG21">
+        <v>4</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ21">
+        <v>15743.3</v>
+      </c>
+      <c r="AK21">
+        <v>21.4285714285714</v>
+      </c>
+      <c r="AL21">
+        <v>5.69047619047619</v>
+      </c>
+      <c r="AM21">
+        <v>58</v>
+      </c>
+      <c r="AN21">
+        <v>36</v>
+      </c>
+      <c r="AO21">
+        <v>2</v>
+      </c>
+      <c r="AP21">
+        <v>66.2</v>
+      </c>
+      <c r="AQ21">
+        <v>34</v>
+      </c>
+      <c r="AR21">
+        <v>32</v>
+      </c>
+      <c r="AS21">
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <v>30</v>
+      </c>
+      <c r="AU21">
+        <v>1.50490196078431</v>
+      </c>
+      <c r="AV21">
+        <v>11.163</v>
+      </c>
+      <c r="AW21">
+        <v>0.2905</v>
+      </c>
+      <c r="AX21">
+        <v>67.5</v>
+      </c>
+      <c r="AY21">
+        <v>2.1151</v>
+      </c>
+      <c r="AZ21">
+        <v>0.017</v>
+      </c>
+      <c r="BA21">
+        <v>18</v>
+      </c>
+      <c r="BC21">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2049,6 +4426,113 @@
       <c r="V22">
         <v>139.0284706344258</v>
       </c>
+      <c r="W22">
+        <v>-33.52589</v>
+      </c>
+      <c r="X22">
+        <v>150.56587</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC22">
+        <v>2019</v>
+      </c>
+      <c r="AD22">
+        <v>2001</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG22">
+        <v>4</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ22">
+        <v>15743.3</v>
+      </c>
+      <c r="AK22">
+        <v>21.4285714285714</v>
+      </c>
+      <c r="AL22">
+        <v>5.69047619047619</v>
+      </c>
+      <c r="AM22">
+        <v>58</v>
+      </c>
+      <c r="AN22">
+        <v>36</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>66.2</v>
+      </c>
+      <c r="AQ22">
+        <v>34</v>
+      </c>
+      <c r="AR22">
+        <v>32</v>
+      </c>
+      <c r="AS22">
+        <v>2</v>
+      </c>
+      <c r="AT22">
+        <v>30</v>
+      </c>
+      <c r="AU22">
+        <v>1.50490196078431</v>
+      </c>
+      <c r="AV22">
+        <v>11.163</v>
+      </c>
+      <c r="AW22">
+        <v>0.2905</v>
+      </c>
+      <c r="AX22">
+        <v>67.5</v>
+      </c>
+      <c r="AY22">
+        <v>2.1151</v>
+      </c>
+      <c r="AZ22">
+        <v>0.017</v>
+      </c>
+      <c r="BA22">
+        <v>18</v>
+      </c>
+      <c r="BC22">
+        <v>18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2122,6 +4606,113 @@
       <c r="V23">
         <v>76.03993262719563</v>
       </c>
+      <c r="W23">
+        <v>-33.52589</v>
+      </c>
+      <c r="X23">
+        <v>150.56587</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC23">
+        <v>2019</v>
+      </c>
+      <c r="AD23">
+        <v>2001</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ23">
+        <v>15743.3</v>
+      </c>
+      <c r="AK23">
+        <v>21.4285714285714</v>
+      </c>
+      <c r="AL23">
+        <v>5.69047619047619</v>
+      </c>
+      <c r="AM23">
+        <v>58</v>
+      </c>
+      <c r="AN23">
+        <v>36</v>
+      </c>
+      <c r="AO23">
+        <v>2</v>
+      </c>
+      <c r="AP23">
+        <v>66.2</v>
+      </c>
+      <c r="AQ23">
+        <v>34</v>
+      </c>
+      <c r="AR23">
+        <v>32</v>
+      </c>
+      <c r="AS23">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>30</v>
+      </c>
+      <c r="AU23">
+        <v>1.50490196078431</v>
+      </c>
+      <c r="AV23">
+        <v>11.163</v>
+      </c>
+      <c r="AW23">
+        <v>0.2905</v>
+      </c>
+      <c r="AX23">
+        <v>67.5</v>
+      </c>
+      <c r="AY23">
+        <v>2.1151</v>
+      </c>
+      <c r="AZ23">
+        <v>0.017</v>
+      </c>
+      <c r="BA23">
+        <v>18</v>
+      </c>
+      <c r="BC23">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2200,6 +4791,113 @@
       <c r="V24">
         <v>563.2812711291414</v>
       </c>
+      <c r="W24">
+        <v>-33.52589</v>
+      </c>
+      <c r="X24">
+        <v>150.56587</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC24">
+        <v>2019</v>
+      </c>
+      <c r="AD24">
+        <v>2001</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ24">
+        <v>15743.3</v>
+      </c>
+      <c r="AK24">
+        <v>21.4285714285714</v>
+      </c>
+      <c r="AL24">
+        <v>5.69047619047619</v>
+      </c>
+      <c r="AM24">
+        <v>58</v>
+      </c>
+      <c r="AN24">
+        <v>36</v>
+      </c>
+      <c r="AO24">
+        <v>2</v>
+      </c>
+      <c r="AP24">
+        <v>66.2</v>
+      </c>
+      <c r="AQ24">
+        <v>34</v>
+      </c>
+      <c r="AR24">
+        <v>32</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>30</v>
+      </c>
+      <c r="AU24">
+        <v>1.50490196078431</v>
+      </c>
+      <c r="AV24">
+        <v>11.163</v>
+      </c>
+      <c r="AW24">
+        <v>0.2905</v>
+      </c>
+      <c r="AX24">
+        <v>67.5</v>
+      </c>
+      <c r="AY24">
+        <v>2.1151</v>
+      </c>
+      <c r="AZ24">
+        <v>0.017</v>
+      </c>
+      <c r="BA24">
+        <v>18</v>
+      </c>
+      <c r="BC24">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2273,6 +4971,113 @@
       <c r="V25">
         <v>442.9284478196822</v>
       </c>
+      <c r="W25">
+        <v>-33.52589</v>
+      </c>
+      <c r="X25">
+        <v>150.56587</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC25">
+        <v>2019</v>
+      </c>
+      <c r="AD25">
+        <v>2001</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="AJ25">
+        <v>15743.3</v>
+      </c>
+      <c r="AK25">
+        <v>21.4285714285714</v>
+      </c>
+      <c r="AL25">
+        <v>5.69047619047619</v>
+      </c>
+      <c r="AM25">
+        <v>58</v>
+      </c>
+      <c r="AN25">
+        <v>36</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>66.2</v>
+      </c>
+      <c r="AQ25">
+        <v>34</v>
+      </c>
+      <c r="AR25">
+        <v>32</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>30</v>
+      </c>
+      <c r="AU25">
+        <v>1.50490196078431</v>
+      </c>
+      <c r="AV25">
+        <v>11.163</v>
+      </c>
+      <c r="AW25">
+        <v>0.2905</v>
+      </c>
+      <c r="AX25">
+        <v>67.5</v>
+      </c>
+      <c r="AY25">
+        <v>2.1151</v>
+      </c>
+      <c r="AZ25">
+        <v>0.017</v>
+      </c>
+      <c r="BA25">
+        <v>18</v>
+      </c>
+      <c r="BC25">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2346,6 +5151,119 @@
       <c r="V26">
         <v>175.3696044389978</v>
       </c>
+      <c r="W26">
+        <v>-33.4982</v>
+      </c>
+      <c r="X26">
+        <v>150.50014</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC26">
+        <v>2019</v>
+      </c>
+      <c r="AD26">
+        <v>2013</v>
+      </c>
+      <c r="AE26">
+        <v>2006</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ26">
+        <v>27642.28</v>
+      </c>
+      <c r="AK26">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL26">
+        <v>25.2564102564103</v>
+      </c>
+      <c r="AM26">
+        <v>82</v>
+      </c>
+      <c r="AN26">
+        <v>52</v>
+      </c>
+      <c r="AO26">
+        <v>8</v>
+      </c>
+      <c r="AP26">
+        <v>133.54</v>
+      </c>
+      <c r="AQ26">
+        <v>50</v>
+      </c>
+      <c r="AR26">
+        <v>42</v>
+      </c>
+      <c r="AS26">
+        <v>39</v>
+      </c>
+      <c r="AT26">
+        <v>16</v>
+      </c>
+      <c r="AU26">
+        <v>1.73949579831933</v>
+      </c>
+      <c r="AV26">
+        <v>6.337</v>
+      </c>
+      <c r="AW26">
+        <v>0.178</v>
+      </c>
+      <c r="AX26">
+        <v>57.8</v>
+      </c>
+      <c r="AY26">
+        <v>4.5864</v>
+      </c>
+      <c r="AZ26">
+        <v>0.09911</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>7</v>
+      </c>
+      <c r="BC26">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2419,6 +5337,119 @@
       <c r="V27">
         <v>786.9949581817489</v>
       </c>
+      <c r="W27">
+        <v>-33.4982</v>
+      </c>
+      <c r="X27">
+        <v>150.50014</v>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC27">
+        <v>2019</v>
+      </c>
+      <c r="AD27">
+        <v>2013</v>
+      </c>
+      <c r="AE27">
+        <v>2006</v>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ27">
+        <v>27642.28</v>
+      </c>
+      <c r="AK27">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL27">
+        <v>25.2564102564103</v>
+      </c>
+      <c r="AM27">
+        <v>82</v>
+      </c>
+      <c r="AN27">
+        <v>52</v>
+      </c>
+      <c r="AO27">
+        <v>8</v>
+      </c>
+      <c r="AP27">
+        <v>133.54</v>
+      </c>
+      <c r="AQ27">
+        <v>50</v>
+      </c>
+      <c r="AR27">
+        <v>42</v>
+      </c>
+      <c r="AS27">
+        <v>39</v>
+      </c>
+      <c r="AT27">
+        <v>16</v>
+      </c>
+      <c r="AU27">
+        <v>1.73949579831933</v>
+      </c>
+      <c r="AV27">
+        <v>6.337</v>
+      </c>
+      <c r="AW27">
+        <v>0.178</v>
+      </c>
+      <c r="AX27">
+        <v>57.8</v>
+      </c>
+      <c r="AY27">
+        <v>4.5864</v>
+      </c>
+      <c r="AZ27">
+        <v>0.09911</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>7</v>
+      </c>
+      <c r="BC27">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2492,6 +5523,119 @@
       <c r="V28">
         <v>157.9869281045752</v>
       </c>
+      <c r="W28">
+        <v>-33.4982</v>
+      </c>
+      <c r="X28">
+        <v>150.50014</v>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC28">
+        <v>2019</v>
+      </c>
+      <c r="AD28">
+        <v>2013</v>
+      </c>
+      <c r="AE28">
+        <v>2006</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ28">
+        <v>27642.28</v>
+      </c>
+      <c r="AK28">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL28">
+        <v>25.2564102564103</v>
+      </c>
+      <c r="AM28">
+        <v>82</v>
+      </c>
+      <c r="AN28">
+        <v>52</v>
+      </c>
+      <c r="AO28">
+        <v>8</v>
+      </c>
+      <c r="AP28">
+        <v>133.54</v>
+      </c>
+      <c r="AQ28">
+        <v>50</v>
+      </c>
+      <c r="AR28">
+        <v>42</v>
+      </c>
+      <c r="AS28">
+        <v>39</v>
+      </c>
+      <c r="AT28">
+        <v>16</v>
+      </c>
+      <c r="AU28">
+        <v>1.73949579831933</v>
+      </c>
+      <c r="AV28">
+        <v>6.337</v>
+      </c>
+      <c r="AW28">
+        <v>0.178</v>
+      </c>
+      <c r="AX28">
+        <v>57.8</v>
+      </c>
+      <c r="AY28">
+        <v>4.5864</v>
+      </c>
+      <c r="AZ28">
+        <v>0.09911</v>
+      </c>
+      <c r="BA28">
+        <v>6</v>
+      </c>
+      <c r="BB28">
+        <v>7</v>
+      </c>
+      <c r="BC28">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2565,6 +5709,119 @@
       <c r="V29">
         <v>370.5095283611908</v>
       </c>
+      <c r="W29">
+        <v>-33.4982</v>
+      </c>
+      <c r="X29">
+        <v>150.50014</v>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC29">
+        <v>2019</v>
+      </c>
+      <c r="AD29">
+        <v>2013</v>
+      </c>
+      <c r="AE29">
+        <v>2006</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ29">
+        <v>27642.28</v>
+      </c>
+      <c r="AK29">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL29">
+        <v>25.2564102564103</v>
+      </c>
+      <c r="AM29">
+        <v>82</v>
+      </c>
+      <c r="AN29">
+        <v>52</v>
+      </c>
+      <c r="AO29">
+        <v>8</v>
+      </c>
+      <c r="AP29">
+        <v>133.54</v>
+      </c>
+      <c r="AQ29">
+        <v>50</v>
+      </c>
+      <c r="AR29">
+        <v>42</v>
+      </c>
+      <c r="AS29">
+        <v>39</v>
+      </c>
+      <c r="AT29">
+        <v>16</v>
+      </c>
+      <c r="AU29">
+        <v>1.73949579831933</v>
+      </c>
+      <c r="AV29">
+        <v>6.337</v>
+      </c>
+      <c r="AW29">
+        <v>0.178</v>
+      </c>
+      <c r="AX29">
+        <v>57.8</v>
+      </c>
+      <c r="AY29">
+        <v>4.5864</v>
+      </c>
+      <c r="AZ29">
+        <v>0.09911</v>
+      </c>
+      <c r="BA29">
+        <v>6</v>
+      </c>
+      <c r="BB29">
+        <v>7</v>
+      </c>
+      <c r="BC29">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2638,6 +5895,119 @@
       <c r="V30">
         <v>393.2471945785574</v>
       </c>
+      <c r="W30">
+        <v>-33.4982</v>
+      </c>
+      <c r="X30">
+        <v>150.50014</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC30">
+        <v>2019</v>
+      </c>
+      <c r="AD30">
+        <v>2013</v>
+      </c>
+      <c r="AE30">
+        <v>2006</v>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ30">
+        <v>27642.28</v>
+      </c>
+      <c r="AK30">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL30">
+        <v>25.2564102564103</v>
+      </c>
+      <c r="AM30">
+        <v>82</v>
+      </c>
+      <c r="AN30">
+        <v>52</v>
+      </c>
+      <c r="AO30">
+        <v>8</v>
+      </c>
+      <c r="AP30">
+        <v>133.54</v>
+      </c>
+      <c r="AQ30">
+        <v>50</v>
+      </c>
+      <c r="AR30">
+        <v>42</v>
+      </c>
+      <c r="AS30">
+        <v>39</v>
+      </c>
+      <c r="AT30">
+        <v>16</v>
+      </c>
+      <c r="AU30">
+        <v>1.73949579831933</v>
+      </c>
+      <c r="AV30">
+        <v>6.337</v>
+      </c>
+      <c r="AW30">
+        <v>0.178</v>
+      </c>
+      <c r="AX30">
+        <v>57.8</v>
+      </c>
+      <c r="AY30">
+        <v>4.5864</v>
+      </c>
+      <c r="AZ30">
+        <v>0.09911</v>
+      </c>
+      <c r="BA30">
+        <v>6</v>
+      </c>
+      <c r="BB30">
+        <v>7</v>
+      </c>
+      <c r="BC30">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2711,6 +6081,119 @@
       <c r="V31">
         <v>377.4132171387074</v>
       </c>
+      <c r="W31">
+        <v>-33.4982</v>
+      </c>
+      <c r="X31">
+        <v>150.50014</v>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC31">
+        <v>2019</v>
+      </c>
+      <c r="AD31">
+        <v>2013</v>
+      </c>
+      <c r="AE31">
+        <v>2006</v>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ31">
+        <v>27642.28</v>
+      </c>
+      <c r="AK31">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL31">
+        <v>25.2564102564103</v>
+      </c>
+      <c r="AM31">
+        <v>82</v>
+      </c>
+      <c r="AN31">
+        <v>52</v>
+      </c>
+      <c r="AO31">
+        <v>8</v>
+      </c>
+      <c r="AP31">
+        <v>133.54</v>
+      </c>
+      <c r="AQ31">
+        <v>50</v>
+      </c>
+      <c r="AR31">
+        <v>42</v>
+      </c>
+      <c r="AS31">
+        <v>39</v>
+      </c>
+      <c r="AT31">
+        <v>16</v>
+      </c>
+      <c r="AU31">
+        <v>1.73949579831933</v>
+      </c>
+      <c r="AV31">
+        <v>6.337</v>
+      </c>
+      <c r="AW31">
+        <v>0.178</v>
+      </c>
+      <c r="AX31">
+        <v>57.8</v>
+      </c>
+      <c r="AY31">
+        <v>4.5864</v>
+      </c>
+      <c r="AZ31">
+        <v>0.09911</v>
+      </c>
+      <c r="BA31">
+        <v>6</v>
+      </c>
+      <c r="BB31">
+        <v>7</v>
+      </c>
+      <c r="BC31">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2784,6 +6267,119 @@
       <c r="V32">
         <v>382.3952134751082</v>
       </c>
+      <c r="W32">
+        <v>-33.4982</v>
+      </c>
+      <c r="X32">
+        <v>150.50014</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC32">
+        <v>2019</v>
+      </c>
+      <c r="AD32">
+        <v>2013</v>
+      </c>
+      <c r="AE32">
+        <v>2006</v>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ32">
+        <v>27642.28</v>
+      </c>
+      <c r="AK32">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="AL32">
+        <v>18.2727272727273</v>
+      </c>
+      <c r="AM32">
+        <v>96</v>
+      </c>
+      <c r="AN32">
+        <v>30</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>76.36</v>
+      </c>
+      <c r="AQ32">
+        <v>30</v>
+      </c>
+      <c r="AR32">
+        <v>41</v>
+      </c>
+      <c r="AS32">
+        <v>41</v>
+      </c>
+      <c r="AT32">
+        <v>11</v>
+      </c>
+      <c r="AU32">
+        <v>0.535014005602241</v>
+      </c>
+      <c r="AV32">
+        <v>5.0765</v>
+      </c>
+      <c r="AW32">
+        <v>0.14</v>
+      </c>
+      <c r="AX32">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AY32">
+        <v>4.7465</v>
+      </c>
+      <c r="AZ32">
+        <v>0.08495</v>
+      </c>
+      <c r="BA32">
+        <v>6</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2857,6 +6453,119 @@
       <c r="V33">
         <v>219.6758391962589</v>
       </c>
+      <c r="W33">
+        <v>-33.4982</v>
+      </c>
+      <c r="X33">
+        <v>150.50014</v>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC33">
+        <v>2019</v>
+      </c>
+      <c r="AD33">
+        <v>2013</v>
+      </c>
+      <c r="AE33">
+        <v>2006</v>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG33">
+        <v>2</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ33">
+        <v>27642.28</v>
+      </c>
+      <c r="AK33">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="AL33">
+        <v>18.2727272727273</v>
+      </c>
+      <c r="AM33">
+        <v>96</v>
+      </c>
+      <c r="AN33">
+        <v>30</v>
+      </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>76.36</v>
+      </c>
+      <c r="AQ33">
+        <v>30</v>
+      </c>
+      <c r="AR33">
+        <v>41</v>
+      </c>
+      <c r="AS33">
+        <v>41</v>
+      </c>
+      <c r="AT33">
+        <v>11</v>
+      </c>
+      <c r="AU33">
+        <v>0.535014005602241</v>
+      </c>
+      <c r="AV33">
+        <v>5.0765</v>
+      </c>
+      <c r="AW33">
+        <v>0.14</v>
+      </c>
+      <c r="AX33">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AY33">
+        <v>4.7465</v>
+      </c>
+      <c r="AZ33">
+        <v>0.08495</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2930,6 +6639,119 @@
       <c r="V34">
         <v>349.3586232659516</v>
       </c>
+      <c r="W34">
+        <v>-33.4982</v>
+      </c>
+      <c r="X34">
+        <v>150.50014</v>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC34">
+        <v>2019</v>
+      </c>
+      <c r="AD34">
+        <v>2013</v>
+      </c>
+      <c r="AE34">
+        <v>2006</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ34">
+        <v>27642.28</v>
+      </c>
+      <c r="AK34">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="AL34">
+        <v>18.2727272727273</v>
+      </c>
+      <c r="AM34">
+        <v>96</v>
+      </c>
+      <c r="AN34">
+        <v>30</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>76.36</v>
+      </c>
+      <c r="AQ34">
+        <v>30</v>
+      </c>
+      <c r="AR34">
+        <v>41</v>
+      </c>
+      <c r="AS34">
+        <v>41</v>
+      </c>
+      <c r="AT34">
+        <v>11</v>
+      </c>
+      <c r="AU34">
+        <v>0.535014005602241</v>
+      </c>
+      <c r="AV34">
+        <v>5.0765</v>
+      </c>
+      <c r="AW34">
+        <v>0.14</v>
+      </c>
+      <c r="AX34">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AY34">
+        <v>4.7465</v>
+      </c>
+      <c r="AZ34">
+        <v>0.08495</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>7</v>
+      </c>
+      <c r="BC34">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3008,6 +6830,119 @@
       <c r="V35">
         <v>1293.402420865038</v>
       </c>
+      <c r="W35">
+        <v>-33.4982</v>
+      </c>
+      <c r="X35">
+        <v>150.50014</v>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC35">
+        <v>2019</v>
+      </c>
+      <c r="AD35">
+        <v>2013</v>
+      </c>
+      <c r="AE35">
+        <v>2006</v>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ35">
+        <v>27642.28</v>
+      </c>
+      <c r="AK35">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="AL35">
+        <v>18.2727272727273</v>
+      </c>
+      <c r="AM35">
+        <v>96</v>
+      </c>
+      <c r="AN35">
+        <v>30</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>76.36</v>
+      </c>
+      <c r="AQ35">
+        <v>30</v>
+      </c>
+      <c r="AR35">
+        <v>41</v>
+      </c>
+      <c r="AS35">
+        <v>41</v>
+      </c>
+      <c r="AT35">
+        <v>11</v>
+      </c>
+      <c r="AU35">
+        <v>0.535014005602241</v>
+      </c>
+      <c r="AV35">
+        <v>5.0765</v>
+      </c>
+      <c r="AW35">
+        <v>0.14</v>
+      </c>
+      <c r="AX35">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AY35">
+        <v>4.7465</v>
+      </c>
+      <c r="AZ35">
+        <v>0.08495</v>
+      </c>
+      <c r="BA35">
+        <v>6</v>
+      </c>
+      <c r="BB35">
+        <v>7</v>
+      </c>
+      <c r="BC35">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3081,6 +7016,119 @@
       <c r="V36">
         <v>290.6584536292535</v>
       </c>
+      <c r="W36">
+        <v>-33.4982</v>
+      </c>
+      <c r="X36">
+        <v>150.50014</v>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC36">
+        <v>2019</v>
+      </c>
+      <c r="AD36">
+        <v>2013</v>
+      </c>
+      <c r="AE36">
+        <v>2006</v>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ36">
+        <v>27642.28</v>
+      </c>
+      <c r="AK36">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="AL36">
+        <v>18.2727272727273</v>
+      </c>
+      <c r="AM36">
+        <v>96</v>
+      </c>
+      <c r="AN36">
+        <v>30</v>
+      </c>
+      <c r="AO36">
+        <v>2</v>
+      </c>
+      <c r="AP36">
+        <v>76.36</v>
+      </c>
+      <c r="AQ36">
+        <v>30</v>
+      </c>
+      <c r="AR36">
+        <v>41</v>
+      </c>
+      <c r="AS36">
+        <v>41</v>
+      </c>
+      <c r="AT36">
+        <v>11</v>
+      </c>
+      <c r="AU36">
+        <v>0.535014005602241</v>
+      </c>
+      <c r="AV36">
+        <v>5.0765</v>
+      </c>
+      <c r="AW36">
+        <v>0.14</v>
+      </c>
+      <c r="AX36">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AY36">
+        <v>4.7465</v>
+      </c>
+      <c r="AZ36">
+        <v>0.08495</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>7</v>
+      </c>
+      <c r="BC36">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3154,6 +7202,119 @@
       <c r="V37">
         <v>476.5579626345951</v>
       </c>
+      <c r="W37">
+        <v>-33.4982</v>
+      </c>
+      <c r="X37">
+        <v>150.50014</v>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC37">
+        <v>2019</v>
+      </c>
+      <c r="AD37">
+        <v>2013</v>
+      </c>
+      <c r="AE37">
+        <v>2006</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="AJ37">
+        <v>27642.28</v>
+      </c>
+      <c r="AK37">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="AL37">
+        <v>18.2727272727273</v>
+      </c>
+      <c r="AM37">
+        <v>96</v>
+      </c>
+      <c r="AN37">
+        <v>30</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>76.36</v>
+      </c>
+      <c r="AQ37">
+        <v>30</v>
+      </c>
+      <c r="AR37">
+        <v>41</v>
+      </c>
+      <c r="AS37">
+        <v>41</v>
+      </c>
+      <c r="AT37">
+        <v>11</v>
+      </c>
+      <c r="AU37">
+        <v>0.535014005602241</v>
+      </c>
+      <c r="AV37">
+        <v>5.0765</v>
+      </c>
+      <c r="AW37">
+        <v>0.14</v>
+      </c>
+      <c r="AX37">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AY37">
+        <v>4.7465</v>
+      </c>
+      <c r="AZ37">
+        <v>0.08495</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
+        <v>7</v>
+      </c>
+      <c r="BC37">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3227,6 +7388,116 @@
       <c r="V38">
         <v>152.6418690197065</v>
       </c>
+      <c r="W38">
+        <v>-33.44346</v>
+      </c>
+      <c r="X38">
+        <v>150.59972</v>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC38">
+        <v>2019</v>
+      </c>
+      <c r="AD38">
+        <v>2013</v>
+      </c>
+      <c r="AE38">
+        <v>2004</v>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ38">
+        <v>93095.19</v>
+      </c>
+      <c r="AK38">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL38">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AM38">
+        <v>32</v>
+      </c>
+      <c r="AN38">
+        <v>16</v>
+      </c>
+      <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
+        <v>42.76</v>
+      </c>
+      <c r="AQ38">
+        <v>12</v>
+      </c>
+      <c r="AR38">
+        <v>49</v>
+      </c>
+      <c r="AS38">
+        <v>48</v>
+      </c>
+      <c r="AT38">
+        <v>6</v>
+      </c>
+      <c r="AU38">
+        <v>1.34383753501401</v>
+      </c>
+      <c r="AV38">
+        <v>3.3145</v>
+      </c>
+      <c r="AW38">
+        <v>0.0895</v>
+      </c>
+      <c r="AY38">
+        <v>2.895</v>
+      </c>
+      <c r="AZ38">
+        <v>0.02581</v>
+      </c>
+      <c r="BA38">
+        <v>6</v>
+      </c>
+      <c r="BB38">
+        <v>9</v>
+      </c>
+      <c r="BC38">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3300,6 +7571,116 @@
       <c r="V39">
         <v>384.2355479408592</v>
       </c>
+      <c r="W39">
+        <v>-33.44346</v>
+      </c>
+      <c r="X39">
+        <v>150.59972</v>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC39">
+        <v>2019</v>
+      </c>
+      <c r="AD39">
+        <v>2013</v>
+      </c>
+      <c r="AE39">
+        <v>2004</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG39">
+        <v>2</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ39">
+        <v>93095.19</v>
+      </c>
+      <c r="AK39">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL39">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AM39">
+        <v>32</v>
+      </c>
+      <c r="AN39">
+        <v>16</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>42.76</v>
+      </c>
+      <c r="AQ39">
+        <v>12</v>
+      </c>
+      <c r="AR39">
+        <v>49</v>
+      </c>
+      <c r="AS39">
+        <v>48</v>
+      </c>
+      <c r="AT39">
+        <v>6</v>
+      </c>
+      <c r="AU39">
+        <v>1.34383753501401</v>
+      </c>
+      <c r="AV39">
+        <v>3.3145</v>
+      </c>
+      <c r="AW39">
+        <v>0.0895</v>
+      </c>
+      <c r="AY39">
+        <v>2.895</v>
+      </c>
+      <c r="AZ39">
+        <v>0.02581</v>
+      </c>
+      <c r="BA39">
+        <v>6</v>
+      </c>
+      <c r="BB39">
+        <v>9</v>
+      </c>
+      <c r="BC39">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3373,6 +7754,116 @@
       <c r="V40">
         <v>578.8929627858371</v>
       </c>
+      <c r="W40">
+        <v>-33.44346</v>
+      </c>
+      <c r="X40">
+        <v>150.59972</v>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC40">
+        <v>2019</v>
+      </c>
+      <c r="AD40">
+        <v>2013</v>
+      </c>
+      <c r="AE40">
+        <v>2004</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ40">
+        <v>93095.19</v>
+      </c>
+      <c r="AK40">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL40">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AM40">
+        <v>32</v>
+      </c>
+      <c r="AN40">
+        <v>16</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>42.76</v>
+      </c>
+      <c r="AQ40">
+        <v>12</v>
+      </c>
+      <c r="AR40">
+        <v>49</v>
+      </c>
+      <c r="AS40">
+        <v>48</v>
+      </c>
+      <c r="AT40">
+        <v>6</v>
+      </c>
+      <c r="AU40">
+        <v>1.34383753501401</v>
+      </c>
+      <c r="AV40">
+        <v>3.3145</v>
+      </c>
+      <c r="AW40">
+        <v>0.0895</v>
+      </c>
+      <c r="AY40">
+        <v>2.895</v>
+      </c>
+      <c r="AZ40">
+        <v>0.02581</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>9</v>
+      </c>
+      <c r="BC40">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3446,6 +7937,116 @@
       <c r="V41">
         <v>304.7476605694401</v>
       </c>
+      <c r="W41">
+        <v>-33.44346</v>
+      </c>
+      <c r="X41">
+        <v>150.59972</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC41">
+        <v>2019</v>
+      </c>
+      <c r="AD41">
+        <v>2013</v>
+      </c>
+      <c r="AE41">
+        <v>2004</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG41">
+        <v>2</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ41">
+        <v>93095.19</v>
+      </c>
+      <c r="AK41">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL41">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AM41">
+        <v>32</v>
+      </c>
+      <c r="AN41">
+        <v>16</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>42.76</v>
+      </c>
+      <c r="AQ41">
+        <v>12</v>
+      </c>
+      <c r="AR41">
+        <v>49</v>
+      </c>
+      <c r="AS41">
+        <v>48</v>
+      </c>
+      <c r="AT41">
+        <v>6</v>
+      </c>
+      <c r="AU41">
+        <v>1.34383753501401</v>
+      </c>
+      <c r="AV41">
+        <v>3.3145</v>
+      </c>
+      <c r="AW41">
+        <v>0.0895</v>
+      </c>
+      <c r="AY41">
+        <v>2.895</v>
+      </c>
+      <c r="AZ41">
+        <v>0.02581</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>9</v>
+      </c>
+      <c r="BC41">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3519,6 +8120,116 @@
       <c r="V42">
         <v>111.8022857395495</v>
       </c>
+      <c r="W42">
+        <v>-33.44346</v>
+      </c>
+      <c r="X42">
+        <v>150.59972</v>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC42">
+        <v>2019</v>
+      </c>
+      <c r="AD42">
+        <v>2013</v>
+      </c>
+      <c r="AE42">
+        <v>2004</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ42">
+        <v>93095.19</v>
+      </c>
+      <c r="AK42">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL42">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AM42">
+        <v>32</v>
+      </c>
+      <c r="AN42">
+        <v>16</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>42.76</v>
+      </c>
+      <c r="AQ42">
+        <v>12</v>
+      </c>
+      <c r="AR42">
+        <v>49</v>
+      </c>
+      <c r="AS42">
+        <v>48</v>
+      </c>
+      <c r="AT42">
+        <v>6</v>
+      </c>
+      <c r="AU42">
+        <v>1.34383753501401</v>
+      </c>
+      <c r="AV42">
+        <v>3.3145</v>
+      </c>
+      <c r="AW42">
+        <v>0.0895</v>
+      </c>
+      <c r="AY42">
+        <v>2.895</v>
+      </c>
+      <c r="AZ42">
+        <v>0.02581</v>
+      </c>
+      <c r="BA42">
+        <v>6</v>
+      </c>
+      <c r="BB42">
+        <v>9</v>
+      </c>
+      <c r="BC42">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3592,6 +8303,116 @@
       <c r="V43">
         <v>195.0768120031625</v>
       </c>
+      <c r="W43">
+        <v>-33.44346</v>
+      </c>
+      <c r="X43">
+        <v>150.59972</v>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC43">
+        <v>2019</v>
+      </c>
+      <c r="AD43">
+        <v>2013</v>
+      </c>
+      <c r="AE43">
+        <v>2004</v>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ43">
+        <v>93095.19</v>
+      </c>
+      <c r="AK43">
+        <v>39.7959183673469</v>
+      </c>
+      <c r="AL43">
+        <v>12.8974358974359</v>
+      </c>
+      <c r="AM43">
+        <v>32</v>
+      </c>
+      <c r="AN43">
+        <v>16</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>42.76</v>
+      </c>
+      <c r="AQ43">
+        <v>12</v>
+      </c>
+      <c r="AR43">
+        <v>49</v>
+      </c>
+      <c r="AS43">
+        <v>48</v>
+      </c>
+      <c r="AT43">
+        <v>6</v>
+      </c>
+      <c r="AU43">
+        <v>1.34383753501401</v>
+      </c>
+      <c r="AV43">
+        <v>3.3145</v>
+      </c>
+      <c r="AW43">
+        <v>0.0895</v>
+      </c>
+      <c r="AY43">
+        <v>2.895</v>
+      </c>
+      <c r="AZ43">
+        <v>0.02581</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>9</v>
+      </c>
+      <c r="BC43">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3665,6 +8486,119 @@
       <c r="V44">
         <v>403.5956209490209</v>
       </c>
+      <c r="W44">
+        <v>-33.44346</v>
+      </c>
+      <c r="X44">
+        <v>150.59972</v>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC44">
+        <v>2019</v>
+      </c>
+      <c r="AD44">
+        <v>2013</v>
+      </c>
+      <c r="AE44">
+        <v>2004</v>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG44">
+        <v>2</v>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ44">
+        <v>93095.19</v>
+      </c>
+      <c r="AK44">
+        <v>44.8979591836735</v>
+      </c>
+      <c r="AL44">
+        <v>16.75</v>
+      </c>
+      <c r="AM44">
+        <v>64</v>
+      </c>
+      <c r="AN44">
+        <v>32</v>
+      </c>
+      <c r="AO44">
+        <v>4</v>
+      </c>
+      <c r="AP44">
+        <v>57.62</v>
+      </c>
+      <c r="AQ44">
+        <v>26</v>
+      </c>
+      <c r="AR44">
+        <v>48</v>
+      </c>
+      <c r="AS44">
+        <v>48</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0.407563025210084</v>
+      </c>
+      <c r="AV44">
+        <v>10.5175</v>
+      </c>
+      <c r="AW44">
+        <v>0.0775</v>
+      </c>
+      <c r="AX44">
+        <v>36.8</v>
+      </c>
+      <c r="AY44">
+        <v>2.7508</v>
+      </c>
+      <c r="AZ44">
+        <v>0.02699</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>9</v>
+      </c>
+      <c r="BC44">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3738,6 +8672,119 @@
       <c r="V45">
         <v>132.2228575919154</v>
       </c>
+      <c r="W45">
+        <v>-33.44346</v>
+      </c>
+      <c r="X45">
+        <v>150.59972</v>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC45">
+        <v>2019</v>
+      </c>
+      <c r="AD45">
+        <v>2013</v>
+      </c>
+      <c r="AE45">
+        <v>2004</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG45">
+        <v>2</v>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ45">
+        <v>93095.19</v>
+      </c>
+      <c r="AK45">
+        <v>44.8979591836735</v>
+      </c>
+      <c r="AL45">
+        <v>16.75</v>
+      </c>
+      <c r="AM45">
+        <v>64</v>
+      </c>
+      <c r="AN45">
+        <v>32</v>
+      </c>
+      <c r="AO45">
+        <v>4</v>
+      </c>
+      <c r="AP45">
+        <v>57.62</v>
+      </c>
+      <c r="AQ45">
+        <v>26</v>
+      </c>
+      <c r="AR45">
+        <v>48</v>
+      </c>
+      <c r="AS45">
+        <v>48</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0.407563025210084</v>
+      </c>
+      <c r="AV45">
+        <v>10.5175</v>
+      </c>
+      <c r="AW45">
+        <v>0.0775</v>
+      </c>
+      <c r="AX45">
+        <v>36.8</v>
+      </c>
+      <c r="AY45">
+        <v>2.7508</v>
+      </c>
+      <c r="AZ45">
+        <v>0.02699</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>9</v>
+      </c>
+      <c r="BC45">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3811,6 +8858,119 @@
       <c r="V46">
         <v>134.5867743550975</v>
       </c>
+      <c r="W46">
+        <v>-33.44346</v>
+      </c>
+      <c r="X46">
+        <v>150.59972</v>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC46">
+        <v>2019</v>
+      </c>
+      <c r="AD46">
+        <v>2013</v>
+      </c>
+      <c r="AE46">
+        <v>2004</v>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG46">
+        <v>2</v>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ46">
+        <v>93095.19</v>
+      </c>
+      <c r="AK46">
+        <v>44.8979591836735</v>
+      </c>
+      <c r="AL46">
+        <v>16.75</v>
+      </c>
+      <c r="AM46">
+        <v>64</v>
+      </c>
+      <c r="AN46">
+        <v>32</v>
+      </c>
+      <c r="AO46">
+        <v>4</v>
+      </c>
+      <c r="AP46">
+        <v>57.62</v>
+      </c>
+      <c r="AQ46">
+        <v>26</v>
+      </c>
+      <c r="AR46">
+        <v>48</v>
+      </c>
+      <c r="AS46">
+        <v>48</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0.407563025210084</v>
+      </c>
+      <c r="AV46">
+        <v>10.5175</v>
+      </c>
+      <c r="AW46">
+        <v>0.0775</v>
+      </c>
+      <c r="AX46">
+        <v>36.8</v>
+      </c>
+      <c r="AY46">
+        <v>2.7508</v>
+      </c>
+      <c r="AZ46">
+        <v>0.02699</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>9</v>
+      </c>
+      <c r="BC46">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3884,6 +9044,119 @@
       <c r="V47">
         <v>260.3635273866335</v>
       </c>
+      <c r="W47">
+        <v>-33.44346</v>
+      </c>
+      <c r="X47">
+        <v>150.59972</v>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC47">
+        <v>2019</v>
+      </c>
+      <c r="AD47">
+        <v>2013</v>
+      </c>
+      <c r="AE47">
+        <v>2004</v>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ47">
+        <v>93095.19</v>
+      </c>
+      <c r="AK47">
+        <v>44.8979591836735</v>
+      </c>
+      <c r="AL47">
+        <v>16.75</v>
+      </c>
+      <c r="AM47">
+        <v>64</v>
+      </c>
+      <c r="AN47">
+        <v>32</v>
+      </c>
+      <c r="AO47">
+        <v>4</v>
+      </c>
+      <c r="AP47">
+        <v>57.62</v>
+      </c>
+      <c r="AQ47">
+        <v>26</v>
+      </c>
+      <c r="AR47">
+        <v>48</v>
+      </c>
+      <c r="AS47">
+        <v>48</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0.407563025210084</v>
+      </c>
+      <c r="AV47">
+        <v>10.5175</v>
+      </c>
+      <c r="AW47">
+        <v>0.0775</v>
+      </c>
+      <c r="AX47">
+        <v>36.8</v>
+      </c>
+      <c r="AY47">
+        <v>2.7508</v>
+      </c>
+      <c r="AZ47">
+        <v>0.02699</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>9</v>
+      </c>
+      <c r="BC47">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3957,6 +9230,119 @@
       <c r="V48">
         <v>197.7342247075552</v>
       </c>
+      <c r="W48">
+        <v>-33.44346</v>
+      </c>
+      <c r="X48">
+        <v>150.59972</v>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC48">
+        <v>2019</v>
+      </c>
+      <c r="AD48">
+        <v>2013</v>
+      </c>
+      <c r="AE48">
+        <v>2004</v>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ48">
+        <v>93095.19</v>
+      </c>
+      <c r="AK48">
+        <v>44.8979591836735</v>
+      </c>
+      <c r="AL48">
+        <v>16.75</v>
+      </c>
+      <c r="AM48">
+        <v>64</v>
+      </c>
+      <c r="AN48">
+        <v>32</v>
+      </c>
+      <c r="AO48">
+        <v>4</v>
+      </c>
+      <c r="AP48">
+        <v>57.62</v>
+      </c>
+      <c r="AQ48">
+        <v>26</v>
+      </c>
+      <c r="AR48">
+        <v>48</v>
+      </c>
+      <c r="AS48">
+        <v>48</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0.407563025210084</v>
+      </c>
+      <c r="AV48">
+        <v>10.5175</v>
+      </c>
+      <c r="AW48">
+        <v>0.0775</v>
+      </c>
+      <c r="AX48">
+        <v>36.8</v>
+      </c>
+      <c r="AY48">
+        <v>2.7508</v>
+      </c>
+      <c r="AZ48">
+        <v>0.02699</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>9</v>
+      </c>
+      <c r="BC48">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4030,6 +9416,119 @@
       <c r="V49">
         <v>176.9555107300947</v>
       </c>
+      <c r="W49">
+        <v>-33.44346</v>
+      </c>
+      <c r="X49">
+        <v>150.59972</v>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Sydney Coastal DSF</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="AC49">
+        <v>2019</v>
+      </c>
+      <c r="AD49">
+        <v>2013</v>
+      </c>
+      <c r="AE49">
+        <v>2004</v>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="AJ49">
+        <v>93095.19</v>
+      </c>
+      <c r="AK49">
+        <v>44.8979591836735</v>
+      </c>
+      <c r="AL49">
+        <v>16.75</v>
+      </c>
+      <c r="AM49">
+        <v>64</v>
+      </c>
+      <c r="AN49">
+        <v>32</v>
+      </c>
+      <c r="AO49">
+        <v>4</v>
+      </c>
+      <c r="AP49">
+        <v>57.62</v>
+      </c>
+      <c r="AQ49">
+        <v>26</v>
+      </c>
+      <c r="AR49">
+        <v>48</v>
+      </c>
+      <c r="AS49">
+        <v>48</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0.407563025210084</v>
+      </c>
+      <c r="AV49">
+        <v>10.5175</v>
+      </c>
+      <c r="AW49">
+        <v>0.0775</v>
+      </c>
+      <c r="AX49">
+        <v>36.8</v>
+      </c>
+      <c r="AY49">
+        <v>2.7508</v>
+      </c>
+      <c r="AZ49">
+        <v>0.02699</v>
+      </c>
+      <c r="BA49">
+        <v>6</v>
+      </c>
+      <c r="BB49">
+        <v>9</v>
+      </c>
+      <c r="BC49">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4103,6 +9602,113 @@
       <c r="V50">
         <v>343.0149852237308</v>
       </c>
+      <c r="W50">
+        <v>-33.63916</v>
+      </c>
+      <c r="X50">
+        <v>150.36966</v>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC50">
+        <v>2019</v>
+      </c>
+      <c r="AD50">
+        <v>2002</v>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG50">
+        <v>3</v>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ50">
+        <v>36389.88</v>
+      </c>
+      <c r="AK50">
+        <v>34.6938775510204</v>
+      </c>
+      <c r="AL50">
+        <v>6.68235294117647</v>
+      </c>
+      <c r="AM50">
+        <v>70</v>
+      </c>
+      <c r="AN50">
+        <v>44</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>104.376</v>
+      </c>
+      <c r="AQ50">
+        <v>44</v>
+      </c>
+      <c r="AR50">
+        <v>33</v>
+      </c>
+      <c r="AS50">
+        <v>26</v>
+      </c>
+      <c r="AT50">
+        <v>7</v>
+      </c>
+      <c r="AU50">
+        <v>1.50350140056022</v>
+      </c>
+      <c r="AV50">
+        <v>3.5055</v>
+      </c>
+      <c r="AW50">
+        <v>0.1275</v>
+      </c>
+      <c r="AX50">
+        <v>46.7</v>
+      </c>
+      <c r="AY50">
+        <v>4.0009</v>
+      </c>
+      <c r="AZ50">
+        <v>0.03869</v>
+      </c>
+      <c r="BA50">
+        <v>17</v>
+      </c>
+      <c r="BC50">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4176,6 +9782,113 @@
       <c r="V51">
         <v>349.7841101418097</v>
       </c>
+      <c r="W51">
+        <v>-33.63916</v>
+      </c>
+      <c r="X51">
+        <v>150.36966</v>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC51">
+        <v>2019</v>
+      </c>
+      <c r="AD51">
+        <v>2002</v>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG51">
+        <v>3</v>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ51">
+        <v>36389.88</v>
+      </c>
+      <c r="AK51">
+        <v>34.6938775510204</v>
+      </c>
+      <c r="AL51">
+        <v>6.68235294117647</v>
+      </c>
+      <c r="AM51">
+        <v>70</v>
+      </c>
+      <c r="AN51">
+        <v>44</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>104.376</v>
+      </c>
+      <c r="AQ51">
+        <v>44</v>
+      </c>
+      <c r="AR51">
+        <v>33</v>
+      </c>
+      <c r="AS51">
+        <v>26</v>
+      </c>
+      <c r="AT51">
+        <v>7</v>
+      </c>
+      <c r="AU51">
+        <v>1.50350140056022</v>
+      </c>
+      <c r="AV51">
+        <v>3.5055</v>
+      </c>
+      <c r="AW51">
+        <v>0.1275</v>
+      </c>
+      <c r="AX51">
+        <v>46.7</v>
+      </c>
+      <c r="AY51">
+        <v>4.0009</v>
+      </c>
+      <c r="AZ51">
+        <v>0.03869</v>
+      </c>
+      <c r="BA51">
+        <v>17</v>
+      </c>
+      <c r="BC51">
+        <v>17</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4249,6 +9962,113 @@
       <c r="V52">
         <v>230.4641714841965</v>
       </c>
+      <c r="W52">
+        <v>-33.63916</v>
+      </c>
+      <c r="X52">
+        <v>150.36966</v>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC52">
+        <v>2019</v>
+      </c>
+      <c r="AD52">
+        <v>2002</v>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG52">
+        <v>3</v>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ52">
+        <v>36389.88</v>
+      </c>
+      <c r="AK52">
+        <v>34.6938775510204</v>
+      </c>
+      <c r="AL52">
+        <v>6.68235294117647</v>
+      </c>
+      <c r="AM52">
+        <v>70</v>
+      </c>
+      <c r="AN52">
+        <v>44</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>104.376</v>
+      </c>
+      <c r="AQ52">
+        <v>44</v>
+      </c>
+      <c r="AR52">
+        <v>33</v>
+      </c>
+      <c r="AS52">
+        <v>26</v>
+      </c>
+      <c r="AT52">
+        <v>7</v>
+      </c>
+      <c r="AU52">
+        <v>1.50350140056022</v>
+      </c>
+      <c r="AV52">
+        <v>3.5055</v>
+      </c>
+      <c r="AW52">
+        <v>0.1275</v>
+      </c>
+      <c r="AX52">
+        <v>46.7</v>
+      </c>
+      <c r="AY52">
+        <v>4.0009</v>
+      </c>
+      <c r="AZ52">
+        <v>0.03869</v>
+      </c>
+      <c r="BA52">
+        <v>17</v>
+      </c>
+      <c r="BC52">
+        <v>17</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4322,6 +10142,113 @@
       <c r="V53">
         <v>590.280573572902</v>
       </c>
+      <c r="W53">
+        <v>-33.63916</v>
+      </c>
+      <c r="X53">
+        <v>150.36966</v>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC53">
+        <v>2019</v>
+      </c>
+      <c r="AD53">
+        <v>2002</v>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG53">
+        <v>3</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ53">
+        <v>36389.88</v>
+      </c>
+      <c r="AK53">
+        <v>34.6938775510204</v>
+      </c>
+      <c r="AL53">
+        <v>6.68235294117647</v>
+      </c>
+      <c r="AM53">
+        <v>70</v>
+      </c>
+      <c r="AN53">
+        <v>44</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>104.376</v>
+      </c>
+      <c r="AQ53">
+        <v>44</v>
+      </c>
+      <c r="AR53">
+        <v>33</v>
+      </c>
+      <c r="AS53">
+        <v>26</v>
+      </c>
+      <c r="AT53">
+        <v>7</v>
+      </c>
+      <c r="AU53">
+        <v>1.50350140056022</v>
+      </c>
+      <c r="AV53">
+        <v>3.5055</v>
+      </c>
+      <c r="AW53">
+        <v>0.1275</v>
+      </c>
+      <c r="AX53">
+        <v>46.7</v>
+      </c>
+      <c r="AY53">
+        <v>4.0009</v>
+      </c>
+      <c r="AZ53">
+        <v>0.03869</v>
+      </c>
+      <c r="BA53">
+        <v>17</v>
+      </c>
+      <c r="BC53">
+        <v>17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4395,6 +10322,113 @@
       <c r="V54">
         <v>317.2212220439296</v>
       </c>
+      <c r="W54">
+        <v>-33.63916</v>
+      </c>
+      <c r="X54">
+        <v>150.36966</v>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC54">
+        <v>2019</v>
+      </c>
+      <c r="AD54">
+        <v>2002</v>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG54">
+        <v>3</v>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ54">
+        <v>36389.88</v>
+      </c>
+      <c r="AK54">
+        <v>34.6938775510204</v>
+      </c>
+      <c r="AL54">
+        <v>6.68235294117647</v>
+      </c>
+      <c r="AM54">
+        <v>70</v>
+      </c>
+      <c r="AN54">
+        <v>44</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>104.376</v>
+      </c>
+      <c r="AQ54">
+        <v>44</v>
+      </c>
+      <c r="AR54">
+        <v>33</v>
+      </c>
+      <c r="AS54">
+        <v>26</v>
+      </c>
+      <c r="AT54">
+        <v>7</v>
+      </c>
+      <c r="AU54">
+        <v>1.50350140056022</v>
+      </c>
+      <c r="AV54">
+        <v>3.5055</v>
+      </c>
+      <c r="AW54">
+        <v>0.1275</v>
+      </c>
+      <c r="AX54">
+        <v>46.7</v>
+      </c>
+      <c r="AY54">
+        <v>4.0009</v>
+      </c>
+      <c r="AZ54">
+        <v>0.03869</v>
+      </c>
+      <c r="BA54">
+        <v>17</v>
+      </c>
+      <c r="BC54">
+        <v>17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4468,6 +10502,113 @@
       <c r="V55">
         <v>414.4033477022024</v>
       </c>
+      <c r="W55">
+        <v>-33.63916</v>
+      </c>
+      <c r="X55">
+        <v>150.36966</v>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC55">
+        <v>2019</v>
+      </c>
+      <c r="AD55">
+        <v>2002</v>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG55">
+        <v>3</v>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ55">
+        <v>36389.88</v>
+      </c>
+      <c r="AK55">
+        <v>34.6938775510204</v>
+      </c>
+      <c r="AL55">
+        <v>6.68235294117647</v>
+      </c>
+      <c r="AM55">
+        <v>70</v>
+      </c>
+      <c r="AN55">
+        <v>44</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>104.376</v>
+      </c>
+      <c r="AQ55">
+        <v>44</v>
+      </c>
+      <c r="AR55">
+        <v>33</v>
+      </c>
+      <c r="AS55">
+        <v>26</v>
+      </c>
+      <c r="AT55">
+        <v>7</v>
+      </c>
+      <c r="AU55">
+        <v>1.50350140056022</v>
+      </c>
+      <c r="AV55">
+        <v>3.5055</v>
+      </c>
+      <c r="AW55">
+        <v>0.1275</v>
+      </c>
+      <c r="AX55">
+        <v>46.7</v>
+      </c>
+      <c r="AY55">
+        <v>4.0009</v>
+      </c>
+      <c r="AZ55">
+        <v>0.03869</v>
+      </c>
+      <c r="BA55">
+        <v>17</v>
+      </c>
+      <c r="BC55">
+        <v>17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4541,6 +10682,110 @@
       <c r="V56">
         <v>883.9898519178419</v>
       </c>
+      <c r="W56">
+        <v>-33.63916</v>
+      </c>
+      <c r="X56">
+        <v>150.36966</v>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC56">
+        <v>2019</v>
+      </c>
+      <c r="AD56">
+        <v>2002</v>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG56">
+        <v>3</v>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ56">
+        <v>36389.88</v>
+      </c>
+      <c r="AK56">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="AL56">
+        <v>8.133333333333329</v>
+      </c>
+      <c r="AM56">
+        <v>60</v>
+      </c>
+      <c r="AN56">
+        <v>32</v>
+      </c>
+      <c r="AO56">
+        <v>2</v>
+      </c>
+      <c r="AP56">
+        <v>82.88</v>
+      </c>
+      <c r="AQ56">
+        <v>32</v>
+      </c>
+      <c r="AR56">
+        <v>33</v>
+      </c>
+      <c r="AS56">
+        <v>23</v>
+      </c>
+      <c r="AT56">
+        <v>10</v>
+      </c>
+      <c r="AV56">
+        <v>3.924</v>
+      </c>
+      <c r="AW56">
+        <v>0.2135</v>
+      </c>
+      <c r="AX56">
+        <v>56.3</v>
+      </c>
+      <c r="AY56">
+        <v>3.7072</v>
+      </c>
+      <c r="AZ56">
+        <v>0.06081</v>
+      </c>
+      <c r="BA56">
+        <v>17</v>
+      </c>
+      <c r="BC56">
+        <v>17</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4614,6 +10859,110 @@
       <c r="V57">
         <v>917.7216724376966</v>
       </c>
+      <c r="W57">
+        <v>-33.63916</v>
+      </c>
+      <c r="X57">
+        <v>150.36966</v>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC57">
+        <v>2019</v>
+      </c>
+      <c r="AD57">
+        <v>2002</v>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG57">
+        <v>3</v>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ57">
+        <v>36389.88</v>
+      </c>
+      <c r="AK57">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="AL57">
+        <v>8.133333333333329</v>
+      </c>
+      <c r="AM57">
+        <v>60</v>
+      </c>
+      <c r="AN57">
+        <v>32</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>82.88</v>
+      </c>
+      <c r="AQ57">
+        <v>32</v>
+      </c>
+      <c r="AR57">
+        <v>33</v>
+      </c>
+      <c r="AS57">
+        <v>23</v>
+      </c>
+      <c r="AT57">
+        <v>10</v>
+      </c>
+      <c r="AV57">
+        <v>3.924</v>
+      </c>
+      <c r="AW57">
+        <v>0.2135</v>
+      </c>
+      <c r="AX57">
+        <v>56.3</v>
+      </c>
+      <c r="AY57">
+        <v>3.7072</v>
+      </c>
+      <c r="AZ57">
+        <v>0.06081</v>
+      </c>
+      <c r="BA57">
+        <v>17</v>
+      </c>
+      <c r="BC57">
+        <v>17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4687,6 +11036,110 @@
       <c r="V58">
         <v>328.9795492516127</v>
       </c>
+      <c r="W58">
+        <v>-33.63916</v>
+      </c>
+      <c r="X58">
+        <v>150.36966</v>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC58">
+        <v>2019</v>
+      </c>
+      <c r="AD58">
+        <v>2002</v>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG58">
+        <v>3</v>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ58">
+        <v>36389.88</v>
+      </c>
+      <c r="AK58">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="AL58">
+        <v>8.133333333333329</v>
+      </c>
+      <c r="AM58">
+        <v>60</v>
+      </c>
+      <c r="AN58">
+        <v>32</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>82.88</v>
+      </c>
+      <c r="AQ58">
+        <v>32</v>
+      </c>
+      <c r="AR58">
+        <v>33</v>
+      </c>
+      <c r="AS58">
+        <v>23</v>
+      </c>
+      <c r="AT58">
+        <v>10</v>
+      </c>
+      <c r="AV58">
+        <v>3.924</v>
+      </c>
+      <c r="AW58">
+        <v>0.2135</v>
+      </c>
+      <c r="AX58">
+        <v>56.3</v>
+      </c>
+      <c r="AY58">
+        <v>3.7072</v>
+      </c>
+      <c r="AZ58">
+        <v>0.06081</v>
+      </c>
+      <c r="BA58">
+        <v>17</v>
+      </c>
+      <c r="BC58">
+        <v>17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4760,6 +11213,110 @@
       <c r="V59">
         <v>233.9478553870799</v>
       </c>
+      <c r="W59">
+        <v>-33.63916</v>
+      </c>
+      <c r="X59">
+        <v>150.36966</v>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC59">
+        <v>2019</v>
+      </c>
+      <c r="AD59">
+        <v>2002</v>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG59">
+        <v>3</v>
+      </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ59">
+        <v>36389.88</v>
+      </c>
+      <c r="AK59">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="AL59">
+        <v>8.133333333333329</v>
+      </c>
+      <c r="AM59">
+        <v>60</v>
+      </c>
+      <c r="AN59">
+        <v>32</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>82.88</v>
+      </c>
+      <c r="AQ59">
+        <v>32</v>
+      </c>
+      <c r="AR59">
+        <v>33</v>
+      </c>
+      <c r="AS59">
+        <v>23</v>
+      </c>
+      <c r="AT59">
+        <v>10</v>
+      </c>
+      <c r="AV59">
+        <v>3.924</v>
+      </c>
+      <c r="AW59">
+        <v>0.2135</v>
+      </c>
+      <c r="AX59">
+        <v>56.3</v>
+      </c>
+      <c r="AY59">
+        <v>3.7072</v>
+      </c>
+      <c r="AZ59">
+        <v>0.06081</v>
+      </c>
+      <c r="BA59">
+        <v>17</v>
+      </c>
+      <c r="BC59">
+        <v>17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4833,6 +11390,110 @@
       <c r="V60">
         <v>132.8931498780964</v>
       </c>
+      <c r="W60">
+        <v>-33.63916</v>
+      </c>
+      <c r="X60">
+        <v>150.36966</v>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC60">
+        <v>2019</v>
+      </c>
+      <c r="AD60">
+        <v>2002</v>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG60">
+        <v>3</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ60">
+        <v>36389.88</v>
+      </c>
+      <c r="AK60">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="AL60">
+        <v>8.133333333333329</v>
+      </c>
+      <c r="AM60">
+        <v>60</v>
+      </c>
+      <c r="AN60">
+        <v>32</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>82.88</v>
+      </c>
+      <c r="AQ60">
+        <v>32</v>
+      </c>
+      <c r="AR60">
+        <v>33</v>
+      </c>
+      <c r="AS60">
+        <v>23</v>
+      </c>
+      <c r="AT60">
+        <v>10</v>
+      </c>
+      <c r="AV60">
+        <v>3.924</v>
+      </c>
+      <c r="AW60">
+        <v>0.2135</v>
+      </c>
+      <c r="AX60">
+        <v>56.3</v>
+      </c>
+      <c r="AY60">
+        <v>3.7072</v>
+      </c>
+      <c r="AZ60">
+        <v>0.06081</v>
+      </c>
+      <c r="BA60">
+        <v>17</v>
+      </c>
+      <c r="BC60">
+        <v>17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4906,6 +11567,110 @@
       <c r="V61">
         <v>681.0462375780548</v>
       </c>
+      <c r="W61">
+        <v>-33.63916</v>
+      </c>
+      <c r="X61">
+        <v>150.36966</v>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC61">
+        <v>2019</v>
+      </c>
+      <c r="AD61">
+        <v>2002</v>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG61">
+        <v>3</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="AJ61">
+        <v>36389.88</v>
+      </c>
+      <c r="AK61">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="AL61">
+        <v>8.133333333333329</v>
+      </c>
+      <c r="AM61">
+        <v>60</v>
+      </c>
+      <c r="AN61">
+        <v>32</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>82.88</v>
+      </c>
+      <c r="AQ61">
+        <v>32</v>
+      </c>
+      <c r="AR61">
+        <v>33</v>
+      </c>
+      <c r="AS61">
+        <v>23</v>
+      </c>
+      <c r="AT61">
+        <v>10</v>
+      </c>
+      <c r="AV61">
+        <v>3.924</v>
+      </c>
+      <c r="AW61">
+        <v>0.2135</v>
+      </c>
+      <c r="AX61">
+        <v>56.3</v>
+      </c>
+      <c r="AY61">
+        <v>3.7072</v>
+      </c>
+      <c r="AZ61">
+        <v>0.06081</v>
+      </c>
+      <c r="BA61">
+        <v>17</v>
+      </c>
+      <c r="BC61">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4979,6 +11744,113 @@
       <c r="V62">
         <v>352.68408424995</v>
       </c>
+      <c r="W62">
+        <v>-33.65039</v>
+      </c>
+      <c r="X62">
+        <v>150.32069</v>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC62">
+        <v>2019</v>
+      </c>
+      <c r="AD62">
+        <v>2002</v>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG62">
+        <v>2</v>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ62">
+        <v>50661.65</v>
+      </c>
+      <c r="AK62">
+        <v>41.8367346938776</v>
+      </c>
+      <c r="AL62">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="AM62">
+        <v>52</v>
+      </c>
+      <c r="AN62">
+        <v>40</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="AQ62">
+        <v>36</v>
+      </c>
+      <c r="AR62">
+        <v>34</v>
+      </c>
+      <c r="AS62">
+        <v>1</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>1.68977591036415</v>
+      </c>
+      <c r="AV62">
+        <v>5.585</v>
+      </c>
+      <c r="AW62">
+        <v>0.218</v>
+      </c>
+      <c r="AX62">
+        <v>81</v>
+      </c>
+      <c r="AY62">
+        <v>2.9789</v>
+      </c>
+      <c r="AZ62">
+        <v>0.04442</v>
+      </c>
+      <c r="BA62">
+        <v>17</v>
+      </c>
+      <c r="BC62">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5052,6 +11924,113 @@
       <c r="V63">
         <v>489.5119134073383</v>
       </c>
+      <c r="W63">
+        <v>-33.65039</v>
+      </c>
+      <c r="X63">
+        <v>150.32069</v>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC63">
+        <v>2019</v>
+      </c>
+      <c r="AD63">
+        <v>2002</v>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ63">
+        <v>50661.65</v>
+      </c>
+      <c r="AK63">
+        <v>41.8367346938776</v>
+      </c>
+      <c r="AL63">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="AM63">
+        <v>52</v>
+      </c>
+      <c r="AN63">
+        <v>40</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="AQ63">
+        <v>36</v>
+      </c>
+      <c r="AR63">
+        <v>34</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>1.68977591036415</v>
+      </c>
+      <c r="AV63">
+        <v>5.585</v>
+      </c>
+      <c r="AW63">
+        <v>0.218</v>
+      </c>
+      <c r="AX63">
+        <v>81</v>
+      </c>
+      <c r="AY63">
+        <v>2.9789</v>
+      </c>
+      <c r="AZ63">
+        <v>0.04442</v>
+      </c>
+      <c r="BA63">
+        <v>17</v>
+      </c>
+      <c r="BC63">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5125,6 +12104,113 @@
       <c r="V64">
         <v>981.186816066211</v>
       </c>
+      <c r="W64">
+        <v>-33.65039</v>
+      </c>
+      <c r="X64">
+        <v>150.32069</v>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC64">
+        <v>2019</v>
+      </c>
+      <c r="AD64">
+        <v>2002</v>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG64">
+        <v>2</v>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ64">
+        <v>50661.65</v>
+      </c>
+      <c r="AK64">
+        <v>41.8367346938776</v>
+      </c>
+      <c r="AL64">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="AM64">
+        <v>52</v>
+      </c>
+      <c r="AN64">
+        <v>40</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="AQ64">
+        <v>36</v>
+      </c>
+      <c r="AR64">
+        <v>34</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>1.68977591036415</v>
+      </c>
+      <c r="AV64">
+        <v>5.585</v>
+      </c>
+      <c r="AW64">
+        <v>0.218</v>
+      </c>
+      <c r="AX64">
+        <v>81</v>
+      </c>
+      <c r="AY64">
+        <v>2.9789</v>
+      </c>
+      <c r="AZ64">
+        <v>0.04442</v>
+      </c>
+      <c r="BA64">
+        <v>17</v>
+      </c>
+      <c r="BC64">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5203,6 +12289,113 @@
       <c r="V65">
         <v>292.7196259440268</v>
       </c>
+      <c r="W65">
+        <v>-33.65039</v>
+      </c>
+      <c r="X65">
+        <v>150.32069</v>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC65">
+        <v>2019</v>
+      </c>
+      <c r="AD65">
+        <v>2002</v>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG65">
+        <v>2</v>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ65">
+        <v>50661.65</v>
+      </c>
+      <c r="AK65">
+        <v>41.8367346938776</v>
+      </c>
+      <c r="AL65">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="AM65">
+        <v>52</v>
+      </c>
+      <c r="AN65">
+        <v>40</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="AQ65">
+        <v>36</v>
+      </c>
+      <c r="AR65">
+        <v>34</v>
+      </c>
+      <c r="AS65">
+        <v>1</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>1.68977591036415</v>
+      </c>
+      <c r="AV65">
+        <v>5.585</v>
+      </c>
+      <c r="AW65">
+        <v>0.218</v>
+      </c>
+      <c r="AX65">
+        <v>81</v>
+      </c>
+      <c r="AY65">
+        <v>2.9789</v>
+      </c>
+      <c r="AZ65">
+        <v>0.04442</v>
+      </c>
+      <c r="BA65">
+        <v>17</v>
+      </c>
+      <c r="BC65">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5276,6 +12469,113 @@
       <c r="V66">
         <v>143.6272862307523</v>
       </c>
+      <c r="W66">
+        <v>-33.65039</v>
+      </c>
+      <c r="X66">
+        <v>150.32069</v>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC66">
+        <v>2019</v>
+      </c>
+      <c r="AD66">
+        <v>2002</v>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG66">
+        <v>2</v>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ66">
+        <v>50661.65</v>
+      </c>
+      <c r="AK66">
+        <v>41.8367346938776</v>
+      </c>
+      <c r="AL66">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="AM66">
+        <v>52</v>
+      </c>
+      <c r="AN66">
+        <v>40</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="AQ66">
+        <v>36</v>
+      </c>
+      <c r="AR66">
+        <v>34</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>1.68977591036415</v>
+      </c>
+      <c r="AV66">
+        <v>5.585</v>
+      </c>
+      <c r="AW66">
+        <v>0.218</v>
+      </c>
+      <c r="AX66">
+        <v>81</v>
+      </c>
+      <c r="AY66">
+        <v>2.9789</v>
+      </c>
+      <c r="AZ66">
+        <v>0.04442</v>
+      </c>
+      <c r="BA66">
+        <v>17</v>
+      </c>
+      <c r="BC66">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5349,6 +12649,113 @@
       <c r="V67">
         <v>252.3237761391356</v>
       </c>
+      <c r="W67">
+        <v>-33.65039</v>
+      </c>
+      <c r="X67">
+        <v>150.32069</v>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC67">
+        <v>2019</v>
+      </c>
+      <c r="AD67">
+        <v>2002</v>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ67">
+        <v>50661.65</v>
+      </c>
+      <c r="AK67">
+        <v>41.8367346938776</v>
+      </c>
+      <c r="AL67">
+        <v>10.2682926829268</v>
+      </c>
+      <c r="AM67">
+        <v>52</v>
+      </c>
+      <c r="AN67">
+        <v>40</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="AQ67">
+        <v>36</v>
+      </c>
+      <c r="AR67">
+        <v>34</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>1.68977591036415</v>
+      </c>
+      <c r="AV67">
+        <v>5.585</v>
+      </c>
+      <c r="AW67">
+        <v>0.218</v>
+      </c>
+      <c r="AX67">
+        <v>81</v>
+      </c>
+      <c r="AY67">
+        <v>2.9789</v>
+      </c>
+      <c r="AZ67">
+        <v>0.04442</v>
+      </c>
+      <c r="BA67">
+        <v>17</v>
+      </c>
+      <c r="BC67">
+        <v>17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5422,6 +12829,113 @@
       <c r="V68">
         <v>228.5792034991945</v>
       </c>
+      <c r="W68">
+        <v>-33.65039</v>
+      </c>
+      <c r="X68">
+        <v>150.32069</v>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC68">
+        <v>2019</v>
+      </c>
+      <c r="AD68">
+        <v>2002</v>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG68">
+        <v>2</v>
+      </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ68">
+        <v>50661.65</v>
+      </c>
+      <c r="AK68">
+        <v>36.734693877551</v>
+      </c>
+      <c r="AL68">
+        <v>13.8472222222222</v>
+      </c>
+      <c r="AM68">
+        <v>44</v>
+      </c>
+      <c r="AN68">
+        <v>42</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>71.66</v>
+      </c>
+      <c r="AQ68">
+        <v>36</v>
+      </c>
+      <c r="AR68">
+        <v>33</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>1.48459383753501</v>
+      </c>
+      <c r="AV68">
+        <v>8.314</v>
+      </c>
+      <c r="AW68">
+        <v>0.1035</v>
+      </c>
+      <c r="AX68">
+        <v>85.3</v>
+      </c>
+      <c r="AY68">
+        <v>6.9823</v>
+      </c>
+      <c r="AZ68">
+        <v>0.09722</v>
+      </c>
+      <c r="BA68">
+        <v>17</v>
+      </c>
+      <c r="BC68">
+        <v>17</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5495,6 +13009,113 @@
       <c r="V69">
         <v>328.3453292700857</v>
       </c>
+      <c r="W69">
+        <v>-33.65039</v>
+      </c>
+      <c r="X69">
+        <v>150.32069</v>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC69">
+        <v>2019</v>
+      </c>
+      <c r="AD69">
+        <v>2002</v>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ69">
+        <v>50661.65</v>
+      </c>
+      <c r="AK69">
+        <v>36.734693877551</v>
+      </c>
+      <c r="AL69">
+        <v>13.8472222222222</v>
+      </c>
+      <c r="AM69">
+        <v>44</v>
+      </c>
+      <c r="AN69">
+        <v>42</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>71.66</v>
+      </c>
+      <c r="AQ69">
+        <v>36</v>
+      </c>
+      <c r="AR69">
+        <v>33</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>1.48459383753501</v>
+      </c>
+      <c r="AV69">
+        <v>8.314</v>
+      </c>
+      <c r="AW69">
+        <v>0.1035</v>
+      </c>
+      <c r="AX69">
+        <v>85.3</v>
+      </c>
+      <c r="AY69">
+        <v>6.9823</v>
+      </c>
+      <c r="AZ69">
+        <v>0.09722</v>
+      </c>
+      <c r="BA69">
+        <v>17</v>
+      </c>
+      <c r="BC69">
+        <v>17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5568,6 +13189,113 @@
       <c r="V70">
         <v>337.1960195489607</v>
       </c>
+      <c r="W70">
+        <v>-33.65039</v>
+      </c>
+      <c r="X70">
+        <v>150.32069</v>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC70">
+        <v>2019</v>
+      </c>
+      <c r="AD70">
+        <v>2002</v>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ70">
+        <v>50661.65</v>
+      </c>
+      <c r="AK70">
+        <v>36.734693877551</v>
+      </c>
+      <c r="AL70">
+        <v>13.8472222222222</v>
+      </c>
+      <c r="AM70">
+        <v>44</v>
+      </c>
+      <c r="AN70">
+        <v>42</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>71.66</v>
+      </c>
+      <c r="AQ70">
+        <v>36</v>
+      </c>
+      <c r="AR70">
+        <v>33</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>1.48459383753501</v>
+      </c>
+      <c r="AV70">
+        <v>8.314</v>
+      </c>
+      <c r="AW70">
+        <v>0.1035</v>
+      </c>
+      <c r="AX70">
+        <v>85.3</v>
+      </c>
+      <c r="AY70">
+        <v>6.9823</v>
+      </c>
+      <c r="AZ70">
+        <v>0.09722</v>
+      </c>
+      <c r="BA70">
+        <v>17</v>
+      </c>
+      <c r="BC70">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5641,6 +13369,113 @@
       <c r="V71">
         <v>52.793316192009</v>
       </c>
+      <c r="W71">
+        <v>-33.65039</v>
+      </c>
+      <c r="X71">
+        <v>150.32069</v>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC71">
+        <v>2019</v>
+      </c>
+      <c r="AD71">
+        <v>2002</v>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG71">
+        <v>2</v>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ71">
+        <v>50661.65</v>
+      </c>
+      <c r="AK71">
+        <v>36.734693877551</v>
+      </c>
+      <c r="AL71">
+        <v>13.8472222222222</v>
+      </c>
+      <c r="AM71">
+        <v>44</v>
+      </c>
+      <c r="AN71">
+        <v>42</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>71.66</v>
+      </c>
+      <c r="AQ71">
+        <v>36</v>
+      </c>
+      <c r="AR71">
+        <v>33</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>1.48459383753501</v>
+      </c>
+      <c r="AV71">
+        <v>8.314</v>
+      </c>
+      <c r="AW71">
+        <v>0.1035</v>
+      </c>
+      <c r="AX71">
+        <v>85.3</v>
+      </c>
+      <c r="AY71">
+        <v>6.9823</v>
+      </c>
+      <c r="AZ71">
+        <v>0.09722</v>
+      </c>
+      <c r="BA71">
+        <v>17</v>
+      </c>
+      <c r="BC71">
+        <v>17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5714,6 +13549,113 @@
       <c r="V72">
         <v>241.0292024370662</v>
       </c>
+      <c r="W72">
+        <v>-33.65039</v>
+      </c>
+      <c r="X72">
+        <v>150.32069</v>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC72">
+        <v>2019</v>
+      </c>
+      <c r="AD72">
+        <v>2002</v>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG72">
+        <v>2</v>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ72">
+        <v>50661.65</v>
+      </c>
+      <c r="AK72">
+        <v>36.734693877551</v>
+      </c>
+      <c r="AL72">
+        <v>13.8472222222222</v>
+      </c>
+      <c r="AM72">
+        <v>44</v>
+      </c>
+      <c r="AN72">
+        <v>42</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>71.66</v>
+      </c>
+      <c r="AQ72">
+        <v>36</v>
+      </c>
+      <c r="AR72">
+        <v>33</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>1.48459383753501</v>
+      </c>
+      <c r="AV72">
+        <v>8.314</v>
+      </c>
+      <c r="AW72">
+        <v>0.1035</v>
+      </c>
+      <c r="AX72">
+        <v>85.3</v>
+      </c>
+      <c r="AY72">
+        <v>6.9823</v>
+      </c>
+      <c r="AZ72">
+        <v>0.09722</v>
+      </c>
+      <c r="BA72">
+        <v>17</v>
+      </c>
+      <c r="BC72">
+        <v>17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5786,6 +13728,113 @@
       </c>
       <c r="V73">
         <v>678.7129745515228</v>
+      </c>
+      <c r="W73">
+        <v>-33.65039</v>
+      </c>
+      <c r="X73">
+        <v>150.32069</v>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Sydney Montane DSF</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="AC73">
+        <v>2019</v>
+      </c>
+      <c r="AD73">
+        <v>2002</v>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="AJ73">
+        <v>50661.65</v>
+      </c>
+      <c r="AK73">
+        <v>36.734693877551</v>
+      </c>
+      <c r="AL73">
+        <v>13.8472222222222</v>
+      </c>
+      <c r="AM73">
+        <v>44</v>
+      </c>
+      <c r="AN73">
+        <v>42</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>71.66</v>
+      </c>
+      <c r="AQ73">
+        <v>36</v>
+      </c>
+      <c r="AR73">
+        <v>33</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>1.48459383753501</v>
+      </c>
+      <c r="AV73">
+        <v>8.314</v>
+      </c>
+      <c r="AW73">
+        <v>0.1035</v>
+      </c>
+      <c r="AX73">
+        <v>85.3</v>
+      </c>
+      <c r="AY73">
+        <v>6.9823</v>
+      </c>
+      <c r="AZ73">
+        <v>0.09722</v>
+      </c>
+      <c r="BA73">
+        <v>17</v>
+      </c>
+      <c r="BC73">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
